--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\GreenTechs\Add Sectors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEE129-2345-49C7-9E36-618D74CD7291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="output_from" sheetId="6" r:id="rId6"/>
     <sheet name="units" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1491">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4490,13 +4496,16 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4565,13 +4574,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4609,7 +4626,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4643,6 +4660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4677,9 +4695,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4852,14 +4871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +4907,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +4927,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4947,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4948,7 +4967,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4965,7 +4984,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4982,7 +5001,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -4999,7 +5018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5013,7 +5032,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5027,7 +5046,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5041,7 +5060,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5055,7 +5074,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5069,7 +5088,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5080,7 +5099,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5102,7 +5121,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5132,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5124,7 +5143,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5135,7 +5154,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5165,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5168,7 +5187,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5179,7 +5198,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5190,7 +5209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5201,7 +5220,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5212,7 +5231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5223,7 +5242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5234,7 +5253,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5245,7 +5264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5256,7 +5275,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5267,7 +5286,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5278,7 +5297,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5289,7 +5308,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5300,7 +5319,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5311,7 +5330,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5322,7 +5341,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5333,7 +5352,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5344,7 +5363,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5355,7 +5374,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5366,7 +5385,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5377,7 +5396,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5388,7 +5407,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5399,7 +5418,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5410,7 +5429,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5421,7 +5440,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5432,7 +5451,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5443,7 +5462,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5454,7 +5473,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5465,7 +5484,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5476,7 +5495,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5487,7 +5506,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5498,7 +5517,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5509,7 +5528,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5531,7 +5550,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5542,7 +5561,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5553,7 +5572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5564,7 +5583,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5575,7 +5594,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5586,7 +5605,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5597,7 +5616,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5608,7 +5627,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5619,7 +5638,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5630,7 +5649,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5641,7 +5660,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5652,7 +5671,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5693,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5704,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5696,7 +5715,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5707,7 +5726,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5718,7 +5737,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5729,7 +5748,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5740,7 +5759,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5751,7 +5770,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5762,7 +5781,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5773,7 +5792,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5784,7 +5803,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5795,7 +5814,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5806,7 +5825,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5817,7 +5836,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5828,7 +5847,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5839,7 +5858,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5850,7 +5869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5861,7 +5880,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5872,7 +5891,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5883,7 +5902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5894,7 +5913,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5905,7 +5924,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5916,7 +5935,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5927,7 +5946,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5938,7 +5957,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5949,7 +5968,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5960,7 +5979,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -5971,7 +5990,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -5993,7 +6012,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6004,7 +6023,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6015,7 +6034,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6026,7 +6045,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6037,7 +6056,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6048,7 +6067,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6070,7 +6089,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6081,7 +6100,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6103,7 +6122,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6114,7 +6133,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6136,7 +6155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6147,7 +6166,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6158,7 +6177,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6169,7 +6188,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6180,7 +6199,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6191,7 +6210,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6202,7 +6221,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6213,7 +6232,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6224,7 +6243,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6235,7 +6254,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6246,7 +6265,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6257,7 +6276,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6268,7 +6287,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6279,7 +6298,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6290,7 +6309,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6301,7 +6320,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6312,7 +6331,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6323,7 +6342,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6334,7 +6353,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6345,7 +6364,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6367,7 +6386,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6378,7 +6397,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6389,7 +6408,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6411,7 +6430,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6422,7 +6441,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6433,7 +6452,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6444,7 +6463,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6455,7 +6474,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6466,7 +6485,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6477,7 +6496,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6488,7 +6507,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6499,7 +6518,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6510,7 +6529,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6521,7 +6540,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6532,7 +6551,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6543,7 +6562,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6554,7 +6573,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6565,7 +6584,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6576,7 +6595,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6587,7 +6606,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6598,7 +6617,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6609,7 +6628,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6620,7 +6639,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6631,7 +6650,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6642,7 +6661,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6653,7 +6672,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6664,7 +6683,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6675,7 +6694,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6686,7 +6705,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6697,7 +6716,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6708,7 +6727,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6719,7 +6738,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6730,7 +6749,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6738,7 +6757,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6746,7 +6765,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6754,7 +6773,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6762,7 +6781,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6770,7 +6789,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6778,7 +6797,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6786,7 +6805,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6794,7 +6813,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6802,7 +6821,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6810,7 +6829,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6818,7 +6837,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6826,7 +6845,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6834,7 +6853,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6842,7 +6861,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6850,7 +6869,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6858,7 +6877,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6866,7 +6885,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6874,7 +6893,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6890,7 +6909,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6898,7 +6917,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6906,7 +6925,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6914,7 +6933,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6922,7 +6941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6930,7 +6949,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6938,7 +6957,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6954,7 +6973,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -6962,7 +6981,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -6970,7 +6989,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -6978,7 +6997,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -6986,7 +7005,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -6994,7 +7013,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7002,7 +7021,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7010,7 +7029,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7018,7 +7037,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7026,4527 +7045,4527 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8">
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8">
+    <row r="1002" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8">
+    <row r="1003" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8">
+    <row r="1004" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8">
+    <row r="1005" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8">
+    <row r="1006" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8">
+    <row r="1007" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8">
+    <row r="1008" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8">
+    <row r="1009" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8">
+    <row r="1010" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8">
+    <row r="1011" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8">
+    <row r="1012" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8">
+    <row r="1013" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8">
+    <row r="1014" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8">
+    <row r="1015" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8">
+    <row r="1016" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8">
+    <row r="1017" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8">
+    <row r="1018" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8">
+    <row r="1019" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8">
+    <row r="1020" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8">
+    <row r="1021" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8">
+    <row r="1022" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8">
+    <row r="1023" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8">
+    <row r="1024" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8">
+    <row r="1025" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8">
+    <row r="1026" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8">
+    <row r="1027" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8">
+    <row r="1028" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8">
+    <row r="1029" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8">
+    <row r="1030" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8">
+    <row r="1031" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8">
+    <row r="1032" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8">
+    <row r="1033" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8">
+    <row r="1034" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8">
+    <row r="1035" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8">
+    <row r="1036" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8">
+    <row r="1037" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8">
+    <row r="1038" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8">
+    <row r="1039" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8">
+    <row r="1040" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8">
+    <row r="1041" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8">
+    <row r="1042" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8">
+    <row r="1043" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8">
+    <row r="1044" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8">
+    <row r="1045" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8">
+    <row r="1046" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8">
+    <row r="1047" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8">
+    <row r="1048" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8">
+    <row r="1049" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8">
+    <row r="1050" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8">
+    <row r="1051" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8">
+    <row r="1052" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8">
+    <row r="1053" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8">
+    <row r="1054" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8">
+    <row r="1055" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8">
+    <row r="1056" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8">
+    <row r="1057" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8">
+    <row r="1058" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8">
+    <row r="1059" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8">
+    <row r="1060" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8">
+    <row r="1061" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8">
+    <row r="1062" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8">
+    <row r="1063" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8">
+    <row r="1064" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8">
+    <row r="1065" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8">
+    <row r="1066" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8">
+    <row r="1067" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8">
+    <row r="1068" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8">
+    <row r="1069" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8">
+    <row r="1070" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8">
+    <row r="1071" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8">
+    <row r="1072" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8">
+    <row r="1073" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8">
+    <row r="1074" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8">
+    <row r="1075" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8">
+    <row r="1076" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8">
+    <row r="1077" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8">
+    <row r="1078" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8">
+    <row r="1079" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8">
+    <row r="1080" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8">
+    <row r="1081" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8">
+    <row r="1082" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8">
+    <row r="1083" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8">
+    <row r="1084" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8">
+    <row r="1085" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8">
+    <row r="1086" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8">
+    <row r="1087" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8">
+    <row r="1088" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8">
+    <row r="1089" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8">
+    <row r="1090" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8">
+    <row r="1091" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8">
+    <row r="1092" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8">
+    <row r="1093" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8">
+    <row r="1094" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8">
+    <row r="1095" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8">
+    <row r="1096" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8">
+    <row r="1097" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8">
+    <row r="1098" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8">
+    <row r="1099" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8">
+    <row r="1100" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8">
+    <row r="1101" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8">
+    <row r="1102" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8">
+    <row r="1103" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8">
+    <row r="1104" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8">
+    <row r="1105" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
@@ -11557,29 +11576,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11590,7 +11609,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11601,7 +11620,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11613,30 +11632,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
-      <formula1>indeces!$I$1:$I$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
-      <formula1>indeces!$F$1:$F$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:AH1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$I$1:$I$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:AH2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$F$1:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:AH3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11647,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11658,7 +11690,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1487</v>
       </c>
@@ -11673,111 +11705,31 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$G$1:$G$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11788,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11799,7 +11751,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1488</v>
       </c>
@@ -11814,126 +11766,46 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$H$1:$H$1105</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11944,7 +11816,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11955,7 +11827,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11967,30 +11839,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:AH1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$D$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:AH2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$C$1:$C$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:AH3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12001,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -12012,7 +11897,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -12033,308 +11918,71 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="90">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$D$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$C$1:$C$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>1485</v>
+      <c r="B4" t="s">
+        <v>1490</v>
       </c>
     </row>
   </sheetData>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\GreenTechs\Add Sectors\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEE129-2345-49C7-9E36-618D74CD7291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,12 @@
     <sheet name="output_from" sheetId="6" r:id="rId6"/>
     <sheet name="units" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1490">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4496,16 +4490,13 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4574,21 +4565,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4626,7 +4609,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4660,7 +4643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4695,10 +4677,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4871,14 +4852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4907,7 +4888,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4927,7 +4908,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4947,7 +4928,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4948,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4984,7 +4965,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5001,7 +4982,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5018,7 +4999,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5013,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5046,7 +5027,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5041,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5074,7 +5055,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5088,7 +5069,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5099,7 +5080,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5110,7 +5091,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5121,7 +5102,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5132,7 +5113,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5143,7 +5124,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5154,7 +5135,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5146,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5176,7 +5157,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5187,7 +5168,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5198,7 +5179,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5209,7 +5190,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5220,7 +5201,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5231,7 +5212,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5242,7 +5223,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5253,7 +5234,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5245,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5275,7 +5256,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5286,7 +5267,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5278,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5289,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5319,7 +5300,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5330,7 +5311,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5341,7 +5322,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5352,7 +5333,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5363,7 +5344,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5374,7 +5355,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5385,7 +5366,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5377,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5407,7 +5388,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5418,7 +5399,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5429,7 +5410,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5440,7 +5421,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5451,7 +5432,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5462,7 +5443,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5473,7 +5454,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5484,7 +5465,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5495,7 +5476,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5506,7 +5487,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5517,7 +5498,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5528,7 +5509,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5539,7 +5520,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5550,7 +5531,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5561,7 +5542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5572,7 +5553,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5583,7 +5564,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5594,7 +5575,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5605,7 +5586,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5616,7 +5597,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5627,7 +5608,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5638,7 +5619,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5649,7 +5630,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5660,7 +5641,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5671,7 +5652,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5682,7 +5663,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5693,7 +5674,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5704,7 +5685,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5715,7 +5696,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5726,7 +5707,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5737,7 +5718,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5748,7 +5729,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5759,7 +5740,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5770,7 +5751,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5781,7 +5762,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5792,7 +5773,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5803,7 +5784,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5814,7 +5795,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5825,7 +5806,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5836,7 +5817,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5847,7 +5828,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5858,7 +5839,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5869,7 +5850,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5880,7 +5861,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5891,7 +5872,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5902,7 +5883,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5913,7 +5894,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5924,7 +5905,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5935,7 +5916,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5946,7 +5927,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5957,7 +5938,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5968,7 +5949,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5979,7 +5960,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -5990,7 +5971,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -6001,7 +5982,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -6012,7 +5993,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6023,7 +6004,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6034,7 +6015,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6045,7 +6026,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6056,7 +6037,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6067,7 +6048,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6078,7 +6059,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6089,7 +6070,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6100,7 +6081,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6111,7 +6092,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6122,7 +6103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6133,7 +6114,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6144,7 +6125,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6155,7 +6136,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6166,7 +6147,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6177,7 +6158,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6188,7 +6169,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6199,7 +6180,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6210,7 +6191,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6221,7 +6202,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6232,7 +6213,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6243,7 +6224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6254,7 +6235,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6265,7 +6246,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6276,7 +6257,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6287,7 +6268,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6298,7 +6279,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6309,7 +6290,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6320,7 +6301,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6331,7 +6312,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6342,7 +6323,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6353,7 +6334,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6364,7 +6345,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6375,7 +6356,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6386,7 +6367,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6397,7 +6378,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6408,7 +6389,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6419,7 +6400,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6430,7 +6411,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6441,7 +6422,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6452,7 +6433,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6463,7 +6444,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6474,7 +6455,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6485,7 +6466,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6496,7 +6477,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6507,7 +6488,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6518,7 +6499,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6529,7 +6510,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6540,7 +6521,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6551,7 +6532,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6562,7 +6543,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6573,7 +6554,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6584,7 +6565,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6595,7 +6576,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6606,7 +6587,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6617,7 +6598,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6628,7 +6609,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6639,7 +6620,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6650,7 +6631,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6661,7 +6642,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6672,7 +6653,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6683,7 +6664,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6694,7 +6675,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6705,7 +6686,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6716,7 +6697,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6727,7 +6708,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6738,7 +6719,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6749,7 +6730,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6757,7 +6738,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6765,7 +6746,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6773,7 +6754,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6781,7 +6762,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6789,7 +6770,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6797,7 +6778,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6805,7 +6786,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6813,7 +6794,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6821,7 +6802,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6829,7 +6810,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6837,7 +6818,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6845,7 +6826,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6853,7 +6834,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6861,7 +6842,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6869,7 +6850,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6877,7 +6858,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6885,7 +6866,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6893,7 +6874,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6901,7 +6882,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6909,7 +6890,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6917,7 +6898,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6925,7 +6906,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6933,7 +6914,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6941,7 +6922,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6949,7 +6930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6957,7 +6938,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6965,7 +6946,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6973,7 +6954,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -6981,7 +6962,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -6989,7 +6970,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -6997,7 +6978,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -7005,7 +6986,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -7013,7 +6994,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7021,7 +7002,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7029,7 +7010,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7037,7 +7018,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7045,4527 +7026,4527 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:8">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:8">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:8">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:8">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:8">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:8">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:8">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:8">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:8">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:8">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:8">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:8">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:8">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:8">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:8">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:8">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="8:8">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="8:8">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="8:8">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="8:8">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="8:8">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="8:8">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="8:8">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="8:8">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="8:8">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="8:8">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="8:8">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="8:8">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="8:8">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="8:8">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="8:8">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="8:8">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="8:8">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="8:8">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="8:8">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="8:8">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="8:8">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="8:8">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="8:8">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="8:8">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="8:8">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="8:8">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="8:8">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="8:8">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="8:8">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="8:8">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="8:8">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="8:8">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="8:8">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="8:8">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="8:8">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="8:8">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="8:8">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="8:8">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="8:8">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="8:8">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="8:8">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="8:8">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="8:8">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="8:8">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="8:8">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="8:8">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="8:8">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="8:8">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="8:8">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="8:8">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="8:8">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="8:8">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="8:8">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="8:8">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="8:8">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="8:8">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="8:8">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="8:8">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="8:8">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="8:8">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="8:8">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="8:8">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="8:8">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="8:8">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="8:8">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="8:8">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="8:8">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="8:8">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="8:8">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="8:8">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="8:8">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="8:8">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="8:8">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="8:8">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="8:8">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="8:8">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="8:8">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="8:8">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="8:8">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="8:8">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="8:8">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="8:8">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="8:8">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="8:8">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="8:8">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="8:8">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="8:8">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="8:8">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="8:8">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="8:8">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="8:8">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="8:8">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="8:8">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="8:8">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="8:8">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="8:8">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="8:8">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="8:8">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="8:8">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="8:8">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="8:8">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="8:8">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="8:8">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="8:8">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="8:8">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="8:8">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="8:8">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="8:8">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="8:8">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="8:8">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="8:8">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="8:8">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="8:8">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="8:8">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="8:8">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="8:8">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="8:8">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="8:8">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="8:8">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="8:8">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="8:8">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="8:8">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="8:8">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="8:8">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="8:8">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="8:8">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="8:8">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="8:8">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="8:8">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="8:8">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="8:8">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="8:8">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="8:8">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="8:8">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="8:8">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="8:8">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="8:8">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="8:8">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="8:8">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="8:8">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="8:8">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="8:8">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="8:8">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="8:8">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="8:8">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="8:8">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="8:8">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="8:8">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="8:8">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="8:8">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="8:8">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="8:8">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="8:8">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="8:8">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="8:8">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="8:8">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="8:8">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="8:8">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="8:8">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="8:8">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="8:8">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="8:8">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="8:8">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="8:8">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="8:8">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="8:8">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="8:8">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="8:8">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="8:8">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="8:8">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="8:8">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="8:8">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="8:8">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="8:8">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="8:8">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="8:8">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="8:8">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="8:8">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="8:8">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="8:8">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="8:8">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="8:8">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="8:8">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="8:8">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="8:8">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="8:8">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="8:8">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="8:8">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="8:8">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="8:8">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="8:8">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="8:8">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="8:8">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="8:8">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="8:8">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="8:8">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="8:8">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="8:8">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="8:8">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="8:8">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="8:8">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="8:8">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="8:8">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="8:8">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="8:8">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="8:8">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="8:8">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="8:8">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="8:8">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="8:8">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="8:8">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="8:8">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="8:8">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="8:8">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="8:8">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="8:8">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="8:8">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="8:8">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="8:8">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="8:8">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="8:8">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="8:8">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="8:8">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="8:8">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="8:8">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="8:8">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="8:8">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="8:8">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="8:8">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="8:8">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="8:8">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="8:8">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="8:8">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="8:8">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="8:8">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="8:8">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="8:8">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="8:8">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="8:8">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="8:8">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="8:8">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="8:8">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="8:8">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="8:8">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="8:8">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="8:8">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="8:8">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="8:8">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="8:8">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="8:8">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="8:8">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="8:8">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="8:8">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="8:8">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="8:8">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="8:8">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="8:8">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="8:8">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="8:8">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="8:8">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="8:8">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="8:8">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="8:8">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="8:8">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="8:8">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="8:8">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="8:8">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="8:8">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="8:8">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="8:8">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="8:8">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="8:8">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="8:8">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="8:8">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="8:8">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="8:8">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="8:8">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="8:8">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="8:8">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="8:8">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="8:8">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="8:8">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="8:8">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="8:8">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="8:8">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="8:8">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="8:8">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="8:8">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="8:8">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="8:8">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="8:8">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="8:8">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="8:8">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="8:8">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="8:8">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="8:8">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="8:8">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="8:8">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="8:8">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="8:8">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="8:8">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="8:8">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="8:8">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="8:8">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="8:8">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="8:8">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="8:8">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="8:8">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="8:8">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="8:8">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="8:8">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="8:8">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="8:8">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="8:8">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="8:8">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="8:8">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="8:8">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="8:8">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="8:8">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="8:8">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="8:8">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="8:8">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="8:8">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="8:8">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="8:8">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="8:8">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="8:8">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="8:8">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="8:8">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="8:8">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="8:8">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="8:8">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="8:8">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="8:8">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="8:8">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="8:8">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="8:8">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="8:8">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="8:8">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="8:8">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="8:8">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="8:8">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="8:8">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="8:8">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="8:8">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="8:8">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="8:8">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="8:8">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="8:8">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="8:8">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="8:8">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="8:8">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="8:8">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="8:8">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="8:8">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="8:8">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="8:8">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="8:8">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="8:8">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="8:8">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="8:8">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="8:8">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="8:8">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="8:8">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="8:8">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="8:8">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="8:8">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="8:8">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="8:8">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="8:8">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="8:8">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="8:8">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="8:8">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="8:8">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="8:8">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="8:8">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="8:8">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="8:8">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="8:8">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="8:8">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="8:8">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="8:8">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="8:8">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="8:8">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="8:8">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="8:8">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="8:8">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="8:8">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="8:8">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="8:8">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="8:8">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="8:8">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="8:8">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="8:8">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="8:8">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="8:8">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="8:8">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="8:8">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="8:8">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="8:8">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="8:8">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="8:8">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="8:8">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="8:8">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="8:8">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="8:8">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="8:8">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="8:8">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="8:8">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="8:8">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="8:8">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="8:8">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="8:8">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="8:8">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="8:8">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="8:8">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="8:8">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="8:8">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="8:8">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="8:8">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="8:8">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="8:8">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="8:8">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="8:8">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="8:8">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="8:8">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="8:8">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="8:8">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="8:8">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="8:8">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="8:8">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="8:8">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="8:8">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="8:8">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="8:8">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="8:8">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="8:8">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="8:8">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="8:8">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="8:8">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="8:8">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="8:8">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="8:8">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="8:8">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="8:8">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="8:8">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="8:8">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="8:8">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="8:8">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="8:8">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="8:8">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="8:8">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="8:8">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="8:8">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="8:8">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="8:8">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="8:8">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="8:8">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="8:8">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="8:8">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="8:8">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="8:8">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="8:8">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="8:8">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="8:8">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="8:8">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="8:8">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="8:8">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="8:8">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="8:8">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="8:8">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="8:8">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="8:8">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="8:8">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="8:8">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="8:8">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="8:8">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="8:8">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="8:8">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="8:8">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="8:8">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="8:8">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="8:8">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="8:8">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="8:8">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="8:8">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="8:8">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="8:8">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="8:8">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="8:8">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="8:8">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="8:8">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="8:8">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="8:8">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="8:8">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="8:8">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="8:8">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="8:8">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="8:8">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="8:8">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="8:8">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="8:8">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="8:8">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="8:8">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="8:8">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="8:8">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="8:8">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="8:8">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="8:8">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="8:8">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="8:8">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="8:8">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="8:8">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="8:8">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="8:8">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="8:8">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="8:8">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="8:8">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="8:8">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="8:8">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="8:8">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="8:8">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="8:8">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="8:8">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="8:8">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="8:8">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="8:8">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="8:8">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="8:8">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="8:8">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="8:8">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="8:8">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="8:8">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="8:8">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="8:8">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="8:8">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="8:8">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="8:8">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="8:8">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="8:8">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="8:8">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="8:8">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="8:8">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="8:8">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="8:8">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="8:8">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="8:8">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="8:8">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="8:8">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="8:8">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="8:8">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="8:8">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="8:8">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="8:8">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="8:8">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="8:8">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="8:8">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="8:8">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="8:8">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="8:8">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="8:8">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="8:8">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="8:8">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="8:8">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="8:8">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="8:8">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="8:8">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="8:8">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="8:8">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="8:8">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="8:8">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="8:8">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="8:8">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="8:8">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="8:8">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="8:8">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="8:8">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="8:8">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="8:8">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="8:8">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="8:8">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="8:8">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="8:8">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="8:8">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="8:8">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="8:8">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="8:8">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="8:8">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="8:8">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="8:8">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="8:8">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="8:8">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="8:8">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="8:8">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="8:8">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="8:8">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="8:8">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="8:8">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="8:8">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="8:8">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="8:8">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="8:8">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="8:8">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="8:8">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="8:8">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="8:8">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="8:8">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="8:8">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="8:8">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="8:8">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="8:8">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="8:8">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="8:8">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="8:8">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="8:8">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="8:8">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="8:8">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="8:8">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="8:8">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="8:8">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="8:8">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="8:8">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="8:8">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="8:8">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="8:8">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="8:8">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="8:8">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="8:8">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="8:8">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="8:8">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="8:8">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="8:8">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="857" spans="8:8">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="8:8">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="8:8">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="8:8">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="8:8">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="8:8">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="8:8">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="8:8">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="8:8">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="8:8">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="8:8">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="8:8">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="8:8">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="870" spans="8:8">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="871" spans="8:8">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="872" spans="8:8">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="873" spans="8:8">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="874" spans="8:8">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="875" spans="8:8">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="876" spans="8:8">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="877" spans="8:8">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="878" spans="8:8">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="879" spans="8:8">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="880" spans="8:8">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="881" spans="8:8">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="882" spans="8:8">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="883" spans="8:8">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="884" spans="8:8">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="885" spans="8:8">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="886" spans="8:8">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="887" spans="8:8">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="888" spans="8:8">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="889" spans="8:8">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="890" spans="8:8">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="8:8">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="892" spans="8:8">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="893" spans="8:8">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="894" spans="8:8">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="895" spans="8:8">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="896" spans="8:8">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="897" spans="8:8">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="898" spans="8:8">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="899" spans="8:8">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="900" spans="8:8">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="901" spans="8:8">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="902" spans="8:8">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="903" spans="8:8">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="904" spans="8:8">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="905" spans="8:8">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="906" spans="8:8">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="907" spans="8:8">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="908" spans="8:8">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="909" spans="8:8">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="8:8">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="911" spans="8:8">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="912" spans="8:8">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="913" spans="8:8">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="914" spans="8:8">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="915" spans="8:8">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="916" spans="8:8">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="917" spans="8:8">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="918" spans="8:8">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="919" spans="8:8">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="920" spans="8:8">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="921" spans="8:8">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="922" spans="8:8">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="923" spans="8:8">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="924" spans="8:8">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="925" spans="8:8">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="926" spans="8:8">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="927" spans="8:8">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="928" spans="8:8">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="8:8">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="8:8">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="931" spans="8:8">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="932" spans="8:8">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="933" spans="8:8">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="8:8">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="8:8">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="8:8">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="8:8">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="8:8">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="8:8">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="8:8">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="8:8">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="8:8">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="943" spans="8:8">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="944" spans="8:8">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="945" spans="8:8">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="946" spans="8:8">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="947" spans="8:8">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="948" spans="8:8">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="949" spans="8:8">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="950" spans="8:8">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="951" spans="8:8">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="952" spans="8:8">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="953" spans="8:8">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="954" spans="8:8">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="955" spans="8:8">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="956" spans="8:8">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="957" spans="8:8">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="958" spans="8:8">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="959" spans="8:8">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="960" spans="8:8">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="961" spans="8:8">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="962" spans="8:8">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="963" spans="8:8">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="964" spans="8:8">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="965" spans="8:8">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="966" spans="8:8">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="967" spans="8:8">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="968" spans="8:8">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="969" spans="8:8">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="970" spans="8:8">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="971" spans="8:8">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="972" spans="8:8">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="973" spans="8:8">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="974" spans="8:8">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="975" spans="8:8">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="976" spans="8:8">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="977" spans="8:8">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="978" spans="8:8">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="979" spans="8:8">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="980" spans="8:8">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="981" spans="8:8">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="982" spans="8:8">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="983" spans="8:8">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="984" spans="8:8">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="985" spans="8:8">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="986" spans="8:8">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="987" spans="8:8">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="988" spans="8:8">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="989" spans="8:8">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="990" spans="8:8">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="991" spans="8:8">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="992" spans="8:8">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="993" spans="8:8">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="994" spans="8:8">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="995" spans="8:8">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="996" spans="8:8">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="997" spans="8:8">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="998" spans="8:8">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="999" spans="8:8">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1000" spans="8:8">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1001" spans="8:8">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1002" spans="8:8">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1003" spans="8:8">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1004" spans="8:8">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1005" spans="8:8">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1006" spans="8:8">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1007" spans="8:8">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1008" spans="8:8">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1009" spans="8:8">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1010" spans="8:8">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1011" spans="8:8">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1012" spans="8:8">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1013" spans="8:8">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1014" spans="8:8">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1015" spans="8:8">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1016" spans="8:8">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1017" spans="8:8">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1018" spans="8:8">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1019" spans="8:8">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1020" spans="8:8">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1021" spans="8:8">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1022" spans="8:8">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1023" spans="8:8">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1024" spans="8:8">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1025" spans="8:8">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1026" spans="8:8">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1027" spans="8:8">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1028" spans="8:8">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1029" spans="8:8">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1030" spans="8:8">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1031" spans="8:8">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1032" spans="8:8">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1033" spans="8:8">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1034" spans="8:8">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1035" spans="8:8">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1036" spans="8:8">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1037" spans="8:8">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1038" spans="8:8">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1039" spans="8:8">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1040" spans="8:8">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1041" spans="8:8">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1042" spans="8:8">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1043" spans="8:8">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1044" spans="8:8">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1045" spans="8:8">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1046" spans="8:8">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1047" spans="8:8">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1048" spans="8:8">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1049" spans="8:8">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1050" spans="8:8">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1051" spans="8:8">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1052" spans="8:8">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1053" spans="8:8">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1054" spans="8:8">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1055" spans="8:8">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1056" spans="8:8">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1057" spans="8:8">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1058" spans="8:8">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1059" spans="8:8">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1060" spans="8:8">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1061" spans="8:8">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1062" spans="8:8">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1063" spans="8:8">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1064" spans="8:8">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1065" spans="8:8">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1066" spans="8:8">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1067" spans="8:8">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1068" spans="8:8">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1069" spans="8:8">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1070" spans="8:8">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1071" spans="8:8">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1072" spans="8:8">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1073" spans="8:8">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1074" spans="8:8">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1075" spans="8:8">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1076" spans="8:8">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1077" spans="8:8">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1078" spans="8:8">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1079" spans="8:8">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1080" spans="8:8">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1081" spans="8:8">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1082" spans="8:8">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1083" spans="8:8">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1084" spans="8:8">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1085" spans="8:8">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1086" spans="8:8">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1087" spans="8:8">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1088" spans="8:8">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1089" spans="8:8">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1090" spans="8:8">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1091" spans="8:8">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1092" spans="8:8">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1093" spans="8:8">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1094" spans="8:8">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1095" spans="8:8">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1096" spans="8:8">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1097" spans="8:8">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1098" spans="8:8">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1099" spans="8:8">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1100" spans="8:8">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1101" spans="8:8">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1102" spans="8:8">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1103" spans="8:8">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1104" spans="8:8">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1105" spans="8:8">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
@@ -11576,29 +11557,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11609,7 +11590,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11620,7 +11601,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11632,43 +11613,30 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
+      <formula1>indeces!$I$1:$I$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
+      <formula1>indeces!$F$1:$F$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:AH1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$I$1:$I$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:AH2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>indeces!$F$1:$F$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:AH3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11679,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11690,7 +11658,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1487</v>
       </c>
@@ -11705,31 +11673,111 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$G$1:$G$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11740,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11751,7 +11799,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1488</v>
       </c>
@@ -11766,46 +11814,126 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$H$1:$H$1105</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11816,7 +11944,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11827,7 +11955,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11839,43 +11967,30 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:AH1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$D$1:$D$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:AH2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
-          <x14:formula1>
-            <xm:f>indeces!$C$1:$C$163</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:AH3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11886,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11897,7 +12012,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -11918,71 +12033,308 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$D$1:$D$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>indeces!$C$1:$C$163</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B3" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
   </sheetData>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Add Sectors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793FD9D3-57B0-4452-8A90-D0505E0F7E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="27312" yWindow="2736" windowWidth="18432" windowHeight="9576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="output_from" sheetId="6" r:id="rId6"/>
     <sheet name="units" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1491">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4490,13 +4496,16 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4565,13 +4574,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4609,7 +4626,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4643,6 +4660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4677,9 +4695,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4852,14 +4871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +4907,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +4927,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4947,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4948,7 +4967,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4965,7 +4984,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4982,7 +5001,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -4999,7 +5018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5013,7 +5032,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5027,7 +5046,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5041,7 +5060,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5055,7 +5074,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5069,7 +5088,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5080,7 +5099,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5102,7 +5121,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5132,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5124,7 +5143,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5135,7 +5154,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5165,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5168,7 +5187,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5179,7 +5198,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5190,7 +5209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5201,7 +5220,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5212,7 +5231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5223,7 +5242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5234,7 +5253,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5245,7 +5264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5256,7 +5275,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5267,7 +5286,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5278,7 +5297,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5289,7 +5308,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5300,7 +5319,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5311,7 +5330,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5322,7 +5341,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5333,7 +5352,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5344,7 +5363,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5355,7 +5374,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5366,7 +5385,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5377,7 +5396,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5388,7 +5407,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5399,7 +5418,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5410,7 +5429,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5421,7 +5440,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5432,7 +5451,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5443,7 +5462,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5454,7 +5473,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5465,7 +5484,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5476,7 +5495,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5487,7 +5506,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5498,7 +5517,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5509,7 +5528,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5531,7 +5550,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5542,7 +5561,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5553,7 +5572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5564,7 +5583,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5575,7 +5594,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5586,7 +5605,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5597,7 +5616,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5608,7 +5627,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5619,7 +5638,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5630,7 +5649,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5641,7 +5660,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5652,7 +5671,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5693,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5704,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5696,7 +5715,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5707,7 +5726,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5718,7 +5737,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5729,7 +5748,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5740,7 +5759,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5751,7 +5770,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5762,7 +5781,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5773,7 +5792,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5784,7 +5803,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5795,7 +5814,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5806,7 +5825,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5817,7 +5836,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5828,7 +5847,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5839,7 +5858,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5850,7 +5869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5861,7 +5880,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5872,7 +5891,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5883,7 +5902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5894,7 +5913,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5905,7 +5924,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5916,7 +5935,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5927,7 +5946,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5938,7 +5957,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5949,7 +5968,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5960,7 +5979,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -5971,7 +5990,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -5993,7 +6012,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6004,7 +6023,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6015,7 +6034,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6026,7 +6045,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6037,7 +6056,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6048,7 +6067,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6070,7 +6089,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6081,7 +6100,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6103,7 +6122,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6114,7 +6133,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6136,7 +6155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6147,7 +6166,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6158,7 +6177,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6169,7 +6188,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6180,7 +6199,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6191,7 +6210,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6202,7 +6221,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6213,7 +6232,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6224,7 +6243,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6235,7 +6254,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6246,7 +6265,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6257,7 +6276,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6268,7 +6287,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6279,7 +6298,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6290,7 +6309,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6301,7 +6320,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6312,7 +6331,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6323,7 +6342,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6334,7 +6353,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6345,7 +6364,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6367,7 +6386,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6378,7 +6397,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6389,7 +6408,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6411,7 +6430,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6422,7 +6441,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6433,7 +6452,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6444,7 +6463,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6455,7 +6474,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6466,7 +6485,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6477,7 +6496,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6488,7 +6507,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6499,7 +6518,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6510,7 +6529,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6521,7 +6540,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6532,7 +6551,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6543,7 +6562,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6554,7 +6573,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6565,7 +6584,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6576,7 +6595,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6587,7 +6606,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6598,7 +6617,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6609,7 +6628,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6620,7 +6639,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6631,7 +6650,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6642,7 +6661,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6653,7 +6672,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6664,7 +6683,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6675,7 +6694,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6686,7 +6705,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6697,7 +6716,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6708,7 +6727,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6719,7 +6738,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6730,7 +6749,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6738,7 +6757,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6746,7 +6765,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6754,7 +6773,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6762,7 +6781,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6770,7 +6789,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6778,7 +6797,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6786,7 +6805,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6794,7 +6813,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6802,7 +6821,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6810,7 +6829,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6818,7 +6837,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6826,7 +6845,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6834,7 +6853,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6842,7 +6861,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6850,7 +6869,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6858,7 +6877,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6866,7 +6885,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6874,7 +6893,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6890,7 +6909,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6898,7 +6917,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6906,7 +6925,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6914,7 +6933,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6922,7 +6941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6930,7 +6949,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6938,7 +6957,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6954,7 +6973,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -6962,7 +6981,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -6970,7 +6989,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -6978,7 +6997,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -6986,7 +7005,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -6994,7 +7013,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7002,7 +7021,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7010,7 +7029,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7018,7 +7037,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7026,4527 +7045,4527 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8">
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8">
+    <row r="1002" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8">
+    <row r="1003" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8">
+    <row r="1004" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8">
+    <row r="1005" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8">
+    <row r="1006" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8">
+    <row r="1007" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8">
+    <row r="1008" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8">
+    <row r="1009" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8">
+    <row r="1010" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8">
+    <row r="1011" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8">
+    <row r="1012" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8">
+    <row r="1013" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8">
+    <row r="1014" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8">
+    <row r="1015" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8">
+    <row r="1016" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8">
+    <row r="1017" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8">
+    <row r="1018" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8">
+    <row r="1019" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8">
+    <row r="1020" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8">
+    <row r="1021" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8">
+    <row r="1022" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8">
+    <row r="1023" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8">
+    <row r="1024" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8">
+    <row r="1025" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8">
+    <row r="1026" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8">
+    <row r="1027" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8">
+    <row r="1028" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8">
+    <row r="1029" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8">
+    <row r="1030" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8">
+    <row r="1031" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8">
+    <row r="1032" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8">
+    <row r="1033" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8">
+    <row r="1034" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8">
+    <row r="1035" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8">
+    <row r="1036" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8">
+    <row r="1037" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8">
+    <row r="1038" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8">
+    <row r="1039" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8">
+    <row r="1040" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8">
+    <row r="1041" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8">
+    <row r="1042" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8">
+    <row r="1043" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8">
+    <row r="1044" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8">
+    <row r="1045" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8">
+    <row r="1046" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8">
+    <row r="1047" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8">
+    <row r="1048" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8">
+    <row r="1049" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8">
+    <row r="1050" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8">
+    <row r="1051" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8">
+    <row r="1052" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8">
+    <row r="1053" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8">
+    <row r="1054" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8">
+    <row r="1055" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8">
+    <row r="1056" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8">
+    <row r="1057" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8">
+    <row r="1058" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8">
+    <row r="1059" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8">
+    <row r="1060" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8">
+    <row r="1061" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8">
+    <row r="1062" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8">
+    <row r="1063" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8">
+    <row r="1064" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8">
+    <row r="1065" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8">
+    <row r="1066" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8">
+    <row r="1067" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8">
+    <row r="1068" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8">
+    <row r="1069" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8">
+    <row r="1070" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8">
+    <row r="1071" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8">
+    <row r="1072" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8">
+    <row r="1073" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8">
+    <row r="1074" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8">
+    <row r="1075" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8">
+    <row r="1076" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8">
+    <row r="1077" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8">
+    <row r="1078" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8">
+    <row r="1079" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8">
+    <row r="1080" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8">
+    <row r="1081" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8">
+    <row r="1082" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8">
+    <row r="1083" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8">
+    <row r="1084" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8">
+    <row r="1085" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8">
+    <row r="1086" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8">
+    <row r="1087" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8">
+    <row r="1088" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8">
+    <row r="1089" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8">
+    <row r="1090" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8">
+    <row r="1091" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8">
+    <row r="1092" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8">
+    <row r="1093" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8">
+    <row r="1094" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8">
+    <row r="1095" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8">
+    <row r="1096" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8">
+    <row r="1097" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8">
+    <row r="1098" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8">
+    <row r="1099" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8">
+    <row r="1100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8">
+    <row r="1101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8">
+    <row r="1102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8">
+    <row r="1103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8">
+    <row r="1104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8">
+    <row r="1105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
@@ -11557,29 +11576,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11590,7 +11609,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11601,7 +11620,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11613,30 +11632,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
-      <formula1>indeces!$I$1:$I$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
-      <formula1>indeces!$F$1:$F$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:AH1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$I$1:$I$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:AH2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$F$1:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:AH3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11647,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11658,7 +11690,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1487</v>
       </c>
@@ -11673,111 +11705,31 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$G$1:$G$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11788,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11799,7 +11751,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1488</v>
       </c>
@@ -11814,126 +11766,46 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$H$1:$H$1105</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11944,7 +11816,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11955,7 +11827,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11967,30 +11839,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:AH1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$D$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:AH2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$C$1:$C$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:AH3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12001,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -12012,7 +11897,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -12033,308 +11918,71 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="90">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$D$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$C$1:$C$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1485</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1490</v>
       </c>
     </row>
   </sheetData>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Add Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\GitHub\GreenTechs\Add Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793FD9D3-57B0-4452-8A90-D0505E0F7E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC132BC-19F0-4B4B-8826-EFF951FDDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27312" yWindow="2736" windowWidth="18432" windowHeight="9576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <sheet name="output_from" sheetId="6" r:id="rId6"/>
     <sheet name="units" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indeces!$A$1:$I$1105</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1493">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4489,6 +4492,15 @@
     <t>Offshore wind plants</t>
   </si>
   <si>
+    <t>Neodymium</t>
+  </si>
+  <si>
+    <t>Dysprosium</t>
+  </si>
+  <si>
+    <t>Raw silicon</t>
+  </si>
+  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -4496,15 +4508,15 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4563,11 +4575,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4874,11 +4888,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4907,7 +4926,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4927,7 +4946,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4947,7 +4966,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4986,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4984,7 +5003,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5001,7 +5020,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5018,7 +5037,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5051,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5046,7 +5065,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5079,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5074,7 +5093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5088,7 +5107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5099,7 +5118,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5110,7 +5129,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5121,7 +5140,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5132,7 +5151,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5143,7 +5162,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5154,7 +5173,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5184,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5176,7 +5195,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5187,7 +5206,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5198,7 +5217,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5209,7 +5228,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5220,7 +5239,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5231,7 +5250,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5242,7 +5261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5253,7 +5272,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5283,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5275,7 +5294,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5286,7 +5305,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5316,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5327,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5319,7 +5338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5330,7 +5349,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5341,7 +5360,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5352,7 +5371,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5363,7 +5382,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5385,7 +5404,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5415,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5407,7 +5426,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5418,7 +5437,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5429,7 +5448,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5440,7 +5459,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5451,7 +5470,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5462,7 +5481,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5473,7 +5492,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5484,7 +5503,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5506,7 +5525,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5517,7 +5536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5528,7 +5547,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5539,7 +5558,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5550,7 +5569,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5561,7 +5580,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5572,7 +5591,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5583,7 +5602,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5594,7 +5613,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5605,7 +5624,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5616,7 +5635,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5627,7 +5646,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5638,7 +5657,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5649,7 +5668,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5660,7 +5679,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5671,7 +5690,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5682,7 +5701,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5693,7 +5712,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5704,7 +5723,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5715,7 +5734,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5726,7 +5745,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5737,7 +5756,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5748,7 +5767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5759,7 +5778,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5770,7 +5789,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5781,7 +5800,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5792,7 +5811,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5803,7 +5822,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5814,7 +5833,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5825,7 +5844,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5836,7 +5855,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5847,7 +5866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5858,7 +5877,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5869,7 +5888,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5880,7 +5899,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5891,7 +5910,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5902,7 +5921,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5913,7 +5932,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5935,7 +5954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5946,7 +5965,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5957,7 +5976,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5968,7 +5987,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5979,7 +5998,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -5990,7 +6009,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -6001,7 +6020,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -6012,7 +6031,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6023,7 +6042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6034,7 +6053,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6045,7 +6064,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6056,7 +6075,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6067,7 +6086,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6078,7 +6097,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6089,7 +6108,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6100,7 +6119,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6111,7 +6130,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6122,7 +6141,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6133,7 +6152,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6144,7 +6163,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6166,7 +6185,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6177,7 +6196,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6188,7 +6207,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6199,7 +6218,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6210,7 +6229,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6221,7 +6240,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6232,7 +6251,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6243,7 +6262,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6254,7 +6273,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6265,7 +6284,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6276,7 +6295,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6287,7 +6306,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6298,7 +6317,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6309,7 +6328,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6320,7 +6339,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6331,7 +6350,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6342,7 +6361,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6353,7 +6372,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6364,7 +6383,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6375,7 +6394,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6386,7 +6405,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6397,7 +6416,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6408,7 +6427,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6419,7 +6438,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6430,7 +6449,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6441,7 +6460,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6452,7 +6471,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6463,7 +6482,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6474,7 +6493,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6485,7 +6504,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6496,7 +6515,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6507,7 +6526,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6518,7 +6537,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6529,7 +6548,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6540,7 +6559,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6551,7 +6570,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6562,7 +6581,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6573,7 +6592,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6584,7 +6603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6595,7 +6614,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6606,7 +6625,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6617,7 +6636,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6628,7 +6647,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6639,7 +6658,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6650,7 +6669,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6661,7 +6680,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6672,7 +6691,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6694,7 +6713,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6705,7 +6724,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6716,7 +6735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6727,7 +6746,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6738,7 +6757,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6749,7 +6768,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6757,7 +6776,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6765,7 +6784,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6773,7 +6792,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6781,7 +6800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6789,7 +6808,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6797,7 +6816,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6805,7 +6824,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6813,7 +6832,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6821,7 +6840,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6829,7 +6848,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6837,7 +6856,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6845,7 +6864,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6853,7 +6872,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6861,7 +6880,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6869,7 +6888,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6877,7 +6896,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6885,7 +6904,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6893,7 +6912,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6901,7 +6920,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6909,7 +6928,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6917,7 +6936,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6925,7 +6944,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6933,7 +6952,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6941,7 +6960,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6949,7 +6968,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6957,7 +6976,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6965,7 +6984,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6973,7 +6992,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -6981,7 +7000,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -6989,7 +7008,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -6997,7 +7016,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -7005,7 +7024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -7013,7 +7032,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7021,7 +7040,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7029,7 +7048,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7037,7 +7056,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7045,4560 +7064,4561 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1003" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1004" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1005" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1006" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1007" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1008" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1009" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1010" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1011" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1012" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1013" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1014" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1015" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1016" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1017" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1018" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1019" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1020" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1021" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1022" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1023" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1024" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1025" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1026" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1027" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1028" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1029" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1030" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1031" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1032" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1033" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1034" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1035" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1036" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1037" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1038" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1039" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1040" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1041" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1042" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1043" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1044" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1045" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1046" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1047" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1048" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1049" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1050" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1051" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1052" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1053" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1054" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1055" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1056" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1057" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1058" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1059" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1060" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1061" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1062" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1063" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1064" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1065" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1066" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1067" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1068" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1069" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1070" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1071" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1072" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1073" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1074" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1075" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1076" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1077" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1078" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1079" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1080" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1081" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1082" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1083" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1084" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1085" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1086" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1087" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1088" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1089" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1090" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1091" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1092" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1093" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1094" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1095" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1096" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1097" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1098" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1099" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11609,7 +11629,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11620,7 +11640,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11629,6 +11649,39 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>1486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -11662,13 +11715,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11678,8 +11731,17 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11689,10 +11751,19 @@
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1484</v>
@@ -11702,6 +11773,15 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>1486</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -11723,13 +11803,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11739,8 +11819,17 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11750,10 +11839,19 @@
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1484</v>
@@ -11763,6 +11861,15 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>1486</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -11784,28 +11891,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="D1:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11816,7 +11925,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11827,7 +11936,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11836,6 +11945,39 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>1486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -11869,13 +12011,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="33.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11885,8 +12036,17 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11896,8 +12056,17 @@
       <c r="F2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -11916,6 +12085,114 @@
       <c r="F3" s="1" t="s">
         <v>1486</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>8.0008399832003349E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5.5998880022399548E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>7.2028559428811423E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.79196416071678566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11948,41 +12225,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B3" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1490</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1488</v>
       </c>
     </row>
   </sheetData>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\GitHub\GreenTechs\Add Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\GreenTechs\Add Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC132BC-19F0-4B4B-8826-EFF951FDDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825B0CA-9F88-4E92-8E8F-679123F39FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1493">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4892,12 +4892,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7064,4527 +7064,4527 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1002" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1003" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1004" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1005" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1006" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1007" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1008" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1009" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1010" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1011" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1012" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1013" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1014" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1015" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1016" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1017" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1018" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1019" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1020" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1021" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1022" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1023" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1024" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1025" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1026" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1027" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1028" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1029" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1030" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1031" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1032" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1033" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1034" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1035" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1036" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1037" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1038" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1039" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1040" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1041" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1042" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1043" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1044" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1045" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1046" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1047" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1048" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1049" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1050" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1051" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1052" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1053" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1054" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1055" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1056" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1057" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1058" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1059" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1060" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1061" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1062" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1063" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1064" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1065" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1066" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1067" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1068" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1069" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1070" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1071" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1072" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1073" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1074" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1075" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1076" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1077" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1078" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1079" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1080" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1081" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1082" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1083" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1084" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1085" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1086" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1087" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1088" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1089" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1090" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1091" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1092" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1093" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1094" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1095" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1096" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1097" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1098" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1099" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="1105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
@@ -11601,24 +11601,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -11719,9 +11719,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1490</v>
       </c>
@@ -11807,9 +11807,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1491</v>
       </c>
@@ -11894,27 +11894,32 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="D1:G11"/>
+      <selection activeCell="D3" sqref="D3:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11925,7 +11930,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11936,7 +11941,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +11952,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -11958,7 +11963,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11969,7 +11974,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -12011,22 +12016,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12045,8 +12054,35 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -12065,8 +12101,35 @@
       <c r="I2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -12094,8 +12157,35 @@
       <c r="I3" s="1" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -12106,16 +12196,16 @@
         <v>233</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>8.0008399832003349E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -12125,17 +12215,17 @@
       <c r="C5" t="s">
         <v>233</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>5.5998880022399548E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -12145,17 +12235,17 @@
       <c r="C6" t="s">
         <v>233</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>7.2028559428811423E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -12165,33 +12255,33 @@
       <c r="C7" t="s">
         <v>233</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0.79196416071678566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
     </row>
   </sheetData>
@@ -12229,39 +12319,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1488</v>
       </c>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\GreenTechs\Add Sectors\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825B0CA-9F88-4E92-8E8F-679123F39FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -21,15 +15,12 @@
     <sheet name="output_from" sheetId="6" r:id="rId6"/>
     <sheet name="units" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indeces!$A$1:$I$1105</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1494">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4499,6 +4490,9 @@
   </si>
   <si>
     <t>Raw silicon</t>
+  </si>
+  <si>
+    <t>Copper</t>
   </si>
   <si>
     <t>Factor</t>
@@ -4513,11 +4507,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4575,34 +4566,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4640,7 +4621,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4674,7 +4655,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4709,10 +4689,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4885,19 +4864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +4900,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +4920,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4966,7 +4940,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4986,7 +4960,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -5003,7 +4977,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +4994,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5037,7 +5011,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5051,7 +5025,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5065,7 +5039,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5079,7 +5053,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5067,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5107,7 +5081,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5118,7 +5092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5129,7 +5103,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5140,7 +5114,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5151,7 +5125,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5162,7 +5136,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +5147,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5184,7 +5158,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5195,7 +5169,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5206,7 +5180,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5217,7 +5191,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5228,7 +5202,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5239,7 +5213,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5250,7 +5224,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5261,7 +5235,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5272,7 +5246,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5283,7 +5257,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5294,7 +5268,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5305,7 +5279,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5316,7 +5290,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5327,7 +5301,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5338,7 +5312,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5349,7 +5323,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5360,7 +5334,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5371,7 +5345,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5382,7 +5356,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5393,7 +5367,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5404,7 +5378,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5415,7 +5389,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5426,7 +5400,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5437,7 +5411,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5448,7 +5422,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5459,7 +5433,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5470,7 +5444,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5481,7 +5455,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5492,7 +5466,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5503,7 +5477,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5514,7 +5488,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5525,7 +5499,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5536,7 +5510,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5547,7 +5521,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5558,7 +5532,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5569,7 +5543,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5580,7 +5554,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5591,7 +5565,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5602,7 +5576,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5613,7 +5587,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5624,7 +5598,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5635,7 +5609,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5646,7 +5620,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5657,7 +5631,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5668,7 +5642,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5679,7 +5653,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5690,7 +5664,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5701,7 +5675,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5712,7 +5686,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5723,7 +5697,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5734,7 +5708,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5745,7 +5719,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5756,7 +5730,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5767,7 +5741,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5778,7 +5752,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5789,7 +5763,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5800,7 +5774,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5811,7 +5785,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5822,7 +5796,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5833,7 +5807,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5844,7 +5818,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5855,7 +5829,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5866,7 +5840,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5877,7 +5851,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5888,7 +5862,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5899,7 +5873,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5910,7 +5884,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5921,7 +5895,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5932,7 +5906,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5943,7 +5917,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5954,7 +5928,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5965,7 +5939,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5976,7 +5950,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5987,7 +5961,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5998,7 +5972,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -6009,7 +5983,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -6020,7 +5994,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -6031,7 +6005,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6042,7 +6016,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6053,7 +6027,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6064,7 +6038,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6075,7 +6049,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6086,7 +6060,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6097,7 +6071,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6108,7 +6082,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6119,7 +6093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6130,7 +6104,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6141,7 +6115,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6152,7 +6126,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6163,7 +6137,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6174,7 +6148,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6185,7 +6159,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6196,7 +6170,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6207,7 +6181,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6218,7 +6192,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6229,7 +6203,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6240,7 +6214,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6251,7 +6225,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6262,7 +6236,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6273,7 +6247,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6284,7 +6258,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6295,7 +6269,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6306,7 +6280,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6317,7 +6291,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6328,7 +6302,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6339,7 +6313,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6350,7 +6324,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6361,7 +6335,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6372,7 +6346,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6383,7 +6357,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6394,7 +6368,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6405,7 +6379,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6416,7 +6390,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6427,7 +6401,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6438,7 +6412,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6449,7 +6423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6460,7 +6434,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6471,7 +6445,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6482,7 +6456,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6493,7 +6467,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6504,7 +6478,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6515,7 +6489,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6526,7 +6500,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6537,7 +6511,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6548,7 +6522,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6559,7 +6533,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6570,7 +6544,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6581,7 +6555,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6592,7 +6566,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6603,7 +6577,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6614,7 +6588,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6625,7 +6599,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6636,7 +6610,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6647,7 +6621,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6658,7 +6632,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6669,7 +6643,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6680,7 +6654,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6691,7 +6665,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6702,7 +6676,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6713,7 +6687,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6724,7 +6698,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6735,7 +6709,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6746,7 +6720,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6757,7 +6731,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6768,7 +6742,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6776,7 +6750,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6784,7 +6758,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6792,7 +6766,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6800,7 +6774,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6808,7 +6782,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6816,7 +6790,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6824,7 +6798,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6832,7 +6806,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6840,7 +6814,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6848,7 +6822,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6856,7 +6830,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6864,7 +6838,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6872,7 +6846,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6880,7 +6854,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6888,7 +6862,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6896,7 +6870,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6904,7 +6878,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6912,7 +6886,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6920,7 +6894,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6928,7 +6902,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6936,7 +6910,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6944,7 +6918,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6952,7 +6926,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6960,7 +6934,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6968,7 +6942,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6976,7 +6950,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6984,7 +6958,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6992,7 +6966,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -7000,7 +6974,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -7008,7 +6982,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -7016,7 +6990,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -7024,7 +6998,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -7032,7 +7006,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7040,7 +7014,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7048,7 +7022,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7056,7 +7030,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7064,4561 +7038,4560 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:8">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:8">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:8">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:8">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:8">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:8">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:8">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:8">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:8">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:8">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:8">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:8">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:8">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:8">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:8">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:8">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:8">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:8">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:8">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:8">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:8">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:8">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:8">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:8">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:8">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:8">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:8">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:8">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:8">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:8">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:8">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:8">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:8">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:8">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:8">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:8">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:8">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:8">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:8">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:8">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:8">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:8">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:8">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:8">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:8">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:8">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:8">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:8">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:8">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:8">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="8:8">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="8:8">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="8:8">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="8:8">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="8:8">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="8:8">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="8:8">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="8:8">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="8:8">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="8:8">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="8:8">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="8:8">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="8:8">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="8:8">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="8:8">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="8:8">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:8">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:8">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:8">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:8">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:8">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:8">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:8">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:8">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:8">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:8">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:8">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="8:8">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:8">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:8">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:8">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:8">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="8:8">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="8:8">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="8:8">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="8:8">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="8:8">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="8:8">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="8:8">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="8:8">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="8:8">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="8:8">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="8:8">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="8:8">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="8:8">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="8:8">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="8:8">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="8:8">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="8:8">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="8:8">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="8:8">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="8:8">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="8:8">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="8:8">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="8:8">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="8:8">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="8:8">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="8:8">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="8:8">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="8:8">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="8:8">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="8:8">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="8:8">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="8:8">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="8:8">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="8:8">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="8:8">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="8:8">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="8:8">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="8:8">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="8:8">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="8:8">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="8:8">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="8:8">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="8:8">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="8:8">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="8:8">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="8:8">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="8:8">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="8:8">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:8">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:8">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:8">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:8">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:8">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:8">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:8">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:8">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:8">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:8">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:8">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:8">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:8">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:8">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:8">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:8">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:8">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:8">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:8">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:8">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:8">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:8">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:8">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:8">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:8">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:8">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:8">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:8">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:8">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:8">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:8">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:8">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:8">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:8">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:8">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:8">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:8">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:8">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:8">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:8">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:8">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:8">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:8">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:8">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:8">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="8:8">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="8:8">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="8:8">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:8">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:8">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:8">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:8">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="8:8">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="8:8">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="8:8">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="8:8">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="8:8">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="8:8">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="8:8">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="8:8">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="8:8">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="8:8">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="8:8">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="8:8">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:8">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:8">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:8">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:8">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="8:8">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="8:8">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="8:8">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="8:8">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="8:8">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="8:8">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="8:8">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="8:8">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="8:8">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="8:8">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="8:8">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="8:8">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="8:8">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="8:8">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="8:8">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="8:8">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="8:8">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="8:8">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="8:8">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="8:8">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="8:8">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="8:8">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="8:8">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="8:8">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="8:8">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="8:8">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="8:8">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="8:8">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="8:8">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="8:8">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="8:8">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="8:8">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="8:8">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="8:8">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="8:8">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="8:8">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="8:8">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="8:8">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="8:8">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="8:8">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="8:8">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="8:8">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="8:8">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="8:8">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="8:8">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="8:8">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="8:8">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="8:8">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="8:8">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="8:8">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="8:8">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="8:8">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="8:8">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="8:8">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="8:8">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="8:8">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="8:8">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="8:8">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="8:8">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="8:8">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="8:8">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="8:8">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="8:8">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="8:8">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="8:8">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="8:8">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="8:8">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="8:8">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="8:8">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="8:8">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="8:8">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="8:8">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="8:8">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="8:8">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="8:8">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="8:8">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="8:8">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="8:8">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="8:8">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="8:8">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="8:8">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="8:8">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="8:8">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="8:8">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="8:8">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="8:8">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="8:8">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="8:8">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="8:8">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="8:8">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="8:8">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="8:8">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="8:8">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="8:8">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="8:8">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="8:8">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="8:8">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="8:8">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="8:8">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="8:8">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="8:8">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="8:8">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="8:8">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="8:8">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="8:8">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="8:8">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="8:8">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="8:8">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="8:8">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="8:8">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="8:8">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="8:8">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="8:8">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="8:8">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="8:8">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="8:8">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="8:8">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="8:8">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="8:8">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="8:8">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="8:8">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="8:8">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="8:8">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="8:8">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="8:8">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="8:8">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="8:8">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="8:8">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="8:8">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="8:8">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="8:8">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="8:8">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="8:8">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="8:8">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="8:8">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="8:8">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="8:8">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="8:8">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="8:8">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="8:8">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="8:8">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="8:8">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="8:8">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="8:8">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="8:8">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="8:8">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="8:8">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="8:8">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="8:8">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="8:8">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="8:8">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="8:8">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="8:8">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="8:8">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="8:8">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="8:8">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="8:8">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="8:8">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="8:8">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="8:8">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="8:8">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="8:8">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="8:8">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="8:8">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="8:8">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="8:8">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="8:8">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="8:8">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="8:8">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="8:8">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="8:8">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="8:8">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="8:8">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="8:8">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="8:8">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="8:8">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="8:8">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="8:8">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="8:8">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="8:8">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="8:8">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="8:8">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="8:8">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="8:8">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="8:8">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="8:8">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="8:8">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="8:8">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="8:8">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="8:8">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="8:8">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="8:8">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="8:8">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="8:8">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="8:8">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="8:8">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="8:8">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="8:8">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="8:8">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="8:8">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="8:8">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="8:8">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="8:8">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="8:8">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="8:8">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="8:8">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="8:8">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="8:8">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="8:8">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="8:8">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="8:8">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="8:8">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="8:8">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="8:8">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="8:8">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="8:8">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="8:8">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="8:8">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="8:8">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="8:8">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="8:8">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="8:8">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="8:8">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="8:8">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="8:8">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="8:8">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="8:8">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="8:8">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="8:8">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="8:8">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="8:8">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="8:8">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="8:8">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="8:8">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="8:8">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="8:8">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="8:8">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="8:8">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="8:8">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="8:8">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="8:8">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="8:8">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="8:8">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="8:8">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="8:8">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="8:8">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="8:8">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="8:8">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="8:8">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="8:8">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="8:8">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="8:8">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="8:8">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="8:8">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="8:8">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="8:8">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="8:8">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="8:8">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="8:8">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="8:8">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="8:8">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="8:8">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="8:8">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="8:8">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="8:8">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="8:8">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="8:8">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="8:8">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="8:8">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="8:8">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="8:8">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="8:8">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="8:8">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="8:8">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="8:8">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="8:8">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="8:8">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="8:8">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="8:8">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="8:8">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="8:8">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="8:8">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="8:8">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="8:8">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="8:8">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="8:8">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="8:8">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="8:8">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="8:8">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="8:8">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="8:8">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="8:8">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="8:8">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="8:8">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="8:8">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="8:8">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="8:8">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="8:8">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="8:8">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="8:8">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="8:8">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="8:8">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="8:8">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="8:8">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="8:8">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="8:8">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="8:8">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="8:8">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="8:8">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="8:8">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="8:8">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="8:8">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="8:8">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="8:8">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="8:8">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="8:8">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="8:8">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="8:8">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="8:8">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="8:8">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="8:8">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="8:8">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="8:8">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="8:8">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="8:8">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="8:8">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="8:8">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="8:8">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="8:8">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="8:8">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="8:8">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="8:8">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="8:8">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="8:8">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="8:8">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="8:8">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="8:8">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="8:8">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="8:8">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="8:8">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="8:8">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="8:8">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="8:8">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="8:8">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="8:8">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="8:8">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="8:8">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="8:8">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="8:8">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="8:8">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="8:8">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="8:8">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="8:8">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="8:8">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="8:8">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="8:8">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="8:8">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="8:8">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="8:8">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="8:8">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="8:8">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="8:8">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="8:8">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="8:8">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="8:8">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="8:8">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="8:8">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="8:8">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="8:8">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="8:8">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="8:8">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="8:8">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="8:8">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="8:8">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="8:8">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="8:8">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="8:8">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="8:8">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="8:8">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="8:8">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="8:8">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="8:8">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="8:8">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="8:8">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="8:8">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="8:8">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="8:8">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="8:8">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="8:8">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="8:8">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="8:8">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="8:8">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="8:8">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="8:8">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="8:8">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="8:8">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="8:8">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="8:8">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="8:8">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="8:8">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="8:8">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="8:8">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="8:8">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="8:8">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="8:8">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="8:8">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="8:8">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="8:8">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="8:8">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="8:8">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="8:8">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="8:8">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="8:8">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="8:8">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="8:8">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="8:8">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="8:8">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="8:8">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="8:8">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="8:8">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="8:8">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="8:8">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="8:8">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="8:8">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="8:8">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="8:8">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="8:8">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="8:8">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="8:8">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="8:8">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="8:8">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="8:8">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="8:8">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="8:8">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="8:8">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="8:8">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="8:8">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="8:8">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="8:8">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="8:8">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="8:8">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="8:8">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="8:8">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="8:8">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="8:8">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="8:8">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="8:8">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="8:8">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="8:8">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="8:8">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="8:8">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="8:8">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="8:8">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="8:8">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="8:8">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="8:8">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="8:8">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="8:8">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="8:8">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="8:8">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="8:8">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="8:8">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="8:8">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="8:8">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="8:8">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="8:8">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="8:8">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="8:8">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="8:8">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="8:8">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="8:8">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="8:8">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="8:8">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="8:8">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="8:8">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="8:8">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="8:8">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="8:8">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="8:8">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="8:8">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="8:8">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="8:8">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="8:8">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="8:8">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="8:8">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="8:8">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="8:8">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="8:8">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="8:8">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="8:8">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="8:8">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="8:8">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="8:8">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="8:8">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="8:8">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="8:8">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="8:8">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="8:8">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="8:8">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="8:8">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="8:8">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="8:8">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1003" spans="8:8">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1004" spans="8:8">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1005" spans="8:8">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1006" spans="8:8">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1007" spans="8:8">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1008" spans="8:8">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1009" spans="8:8">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1010" spans="8:8">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1011" spans="8:8">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1012" spans="8:8">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1013" spans="8:8">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1014" spans="8:8">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1015" spans="8:8">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1016" spans="8:8">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1017" spans="8:8">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1018" spans="8:8">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1019" spans="8:8">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1020" spans="8:8">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1021" spans="8:8">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1022" spans="8:8">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1023" spans="8:8">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1024" spans="8:8">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1025" spans="8:8">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1026" spans="8:8">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1027" spans="8:8">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1028" spans="8:8">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1029" spans="8:8">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1030" spans="8:8">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1031" spans="8:8">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1032" spans="8:8">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1033" spans="8:8">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1034" spans="8:8">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1035" spans="8:8">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1036" spans="8:8">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1037" spans="8:8">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1038" spans="8:8">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1039" spans="8:8">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1040" spans="8:8">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1041" spans="8:8">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1042" spans="8:8">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1043" spans="8:8">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1044" spans="8:8">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1045" spans="8:8">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1046" spans="8:8">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1047" spans="8:8">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1048" spans="8:8">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1049" spans="8:8">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1050" spans="8:8">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1051" spans="8:8">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1052" spans="8:8">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1053" spans="8:8">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1054" spans="8:8">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1055" spans="8:8">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1056" spans="8:8">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1057" spans="8:8">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1058" spans="8:8">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1059" spans="8:8">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1060" spans="8:8">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1061" spans="8:8">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1062" spans="8:8">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1063" spans="8:8">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1064" spans="8:8">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1065" spans="8:8">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1066" spans="8:8">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1067" spans="8:8">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1068" spans="8:8">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1069" spans="8:8">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1070" spans="8:8">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1071" spans="8:8">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1072" spans="8:8">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1073" spans="8:8">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1074" spans="8:8">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1075" spans="8:8">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1076" spans="8:8">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1077" spans="8:8">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1078" spans="8:8">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1079" spans="8:8">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1080" spans="8:8">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1081" spans="8:8">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1082" spans="8:8">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1083" spans="8:8">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1084" spans="8:8">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1085" spans="8:8">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1086" spans="8:8">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1087" spans="8:8">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1088" spans="8:8">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1089" spans="8:8">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1090" spans="8:8">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1091" spans="8:8">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1092" spans="8:8">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1093" spans="8:8">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1094" spans="8:8">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1095" spans="8:8">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1096" spans="8:8">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1097" spans="8:8">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1098" spans="8:8">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1099" spans="8:8">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1100" spans="8:8">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1101" spans="8:8">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1102" spans="8:8">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1103" spans="8:8">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1104" spans="8:8">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1105" spans="8:8">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11629,7 +11602,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11640,7 +11613,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11624,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -11662,7 +11635,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11673,7 +11646,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -11684,44 +11657,42 @@
         <v>1489</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
+      <formula1>indeces!$I$1:$I$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
+      <formula1>indeces!$F$1:$F$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:AH1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$I$1:$I$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:AH2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>indeces!$F$1:$F$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:AH3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11740,8 +11711,11 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11760,10 +11734,13 @@
       <c r="G2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1484</v>
@@ -11783,33 +11760,116 @@
       <c r="G3" s="1" t="s">
         <v>1489</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>1490</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
+      <formula1>indeces!$G$1:$G$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$G$1:$G$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11828,8 +11888,11 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11848,10 +11911,13 @@
       <c r="G2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1484</v>
@@ -11871,55 +11937,131 @@
       <c r="G3" s="1" t="s">
         <v>1489</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>1490</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
+      <formula1>indeces!$H$1:$H$1105</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$H$1:$H$1105</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:M4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11930,7 +12072,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11941,7 +12083,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11952,7 +12094,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -11963,7 +12105,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11974,7 +12116,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -11985,57 +12127,42 @@
         <v>1489</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:AH1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$D$1:$D$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:AH2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
-          <x14:formula1>
-            <xm:f>indeces!$C$1:$C$163</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:AH3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12055,34 +12182,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -12104,32 +12207,8 @@
       <c r="J2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -12158,202 +12237,332 @@
         <v>1489</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" t="s">
-        <v>233</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="2"/>
+        <v>1490</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
+      <formula1>indeces!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>indeces!$D$1:$D$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
+      <formula1>indeces!$C$1:$C$163</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$D$1:$D$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>indeces!$C$1:$C$163</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>1489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1488</v>
       </c>
     </row>
   </sheetData>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Add Sectors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_0194BA63F65AA8574B4D1C44C89466D800B6C642" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFEE0FE-CCD1-4E0D-B931-4F9ADEEEA205}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5500" yWindow="4050" windowWidth="16920" windowHeight="10990" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="output_from" sheetId="6" r:id="rId6"/>
     <sheet name="units" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1494">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -4507,8 +4513,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4577,13 +4583,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4621,7 +4635,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4655,6 +4669,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4689,9 +4704,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4864,14 +4880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4916,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4920,7 +4936,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4940,7 +4956,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4960,7 +4976,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4977,7 +4993,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4994,7 +5010,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5011,7 +5027,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5025,7 +5041,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5055,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5053,7 +5069,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5067,7 +5083,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5081,7 +5097,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5092,7 +5108,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -5103,7 +5119,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5114,7 +5130,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -5125,7 +5141,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -5136,7 +5152,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -5147,7 +5163,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -5158,7 +5174,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -5169,7 +5185,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -5180,7 +5196,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -5191,7 +5207,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -5202,7 +5218,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5213,7 +5229,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5224,7 +5240,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -5235,7 +5251,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5246,7 +5262,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -5257,7 +5273,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -5268,7 +5284,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -5279,7 +5295,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -5290,7 +5306,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -5301,7 +5317,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -5312,7 +5328,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -5323,7 +5339,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5334,7 +5350,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5345,7 +5361,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5356,7 +5372,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -5367,7 +5383,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -5378,7 +5394,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -5389,7 +5405,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -5400,7 +5416,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -5411,7 +5427,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -5422,7 +5438,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -5433,7 +5449,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -5444,7 +5460,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -5455,7 +5471,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5482,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5477,7 +5493,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -5488,7 +5504,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -5499,7 +5515,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -5510,7 +5526,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -5532,7 +5548,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -5543,7 +5559,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -5554,7 +5570,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -5565,7 +5581,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5576,7 +5592,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5587,7 +5603,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -5598,7 +5614,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -5609,7 +5625,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -5620,7 +5636,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -5631,7 +5647,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -5642,7 +5658,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -5653,7 +5669,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -5664,7 +5680,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -5675,7 +5691,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -5686,7 +5702,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5697,7 +5713,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -5708,7 +5724,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -5719,7 +5735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -5730,7 +5746,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -5741,7 +5757,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -5752,7 +5768,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -5763,7 +5779,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -5785,7 +5801,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5796,7 +5812,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5829,7 +5845,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -5840,7 +5856,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -5851,7 +5867,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -5862,7 +5878,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -5873,7 +5889,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -5884,7 +5900,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -5895,7 +5911,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -5906,7 +5922,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -5917,7 +5933,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -5928,7 +5944,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -5939,7 +5955,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -5950,7 +5966,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -5961,7 +5977,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -5972,7 +5988,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -5983,7 +5999,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -5994,7 +6010,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -6005,7 +6021,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -6016,7 +6032,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -6027,7 +6043,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -6038,7 +6054,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -6049,7 +6065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -6060,7 +6076,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -6071,7 +6087,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -6082,7 +6098,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -6093,7 +6109,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -6104,7 +6120,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -6115,7 +6131,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -6126,7 +6142,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -6137,7 +6153,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -6148,7 +6164,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -6159,7 +6175,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -6170,7 +6186,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -6192,7 +6208,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -6203,7 +6219,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -6214,7 +6230,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -6225,7 +6241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -6236,7 +6252,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -6247,7 +6263,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -6258,7 +6274,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -6269,7 +6285,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -6280,7 +6296,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -6291,7 +6307,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -6302,7 +6318,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -6313,7 +6329,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -6324,7 +6340,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -6335,7 +6351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -6346,7 +6362,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -6357,7 +6373,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -6368,7 +6384,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -6390,7 +6406,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -6401,7 +6417,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -6412,7 +6428,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6423,7 +6439,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6434,7 +6450,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6445,7 +6461,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6456,7 +6472,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -6467,7 +6483,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -6478,7 +6494,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6489,7 +6505,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6500,7 +6516,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6511,7 +6527,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6522,7 +6538,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -6533,7 +6549,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -6544,7 +6560,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -6566,7 +6582,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -6577,7 +6593,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -6588,7 +6604,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -6599,7 +6615,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -6610,7 +6626,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -6621,7 +6637,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -6632,7 +6648,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -6643,7 +6659,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -6654,7 +6670,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -6665,7 +6681,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -6676,7 +6692,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -6687,7 +6703,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -6698,7 +6714,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -6709,7 +6725,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -6720,7 +6736,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -6731,7 +6747,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -6742,7 +6758,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -6750,7 +6766,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -6758,7 +6774,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -6766,7 +6782,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -6774,7 +6790,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -6782,7 +6798,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -6790,7 +6806,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -6798,7 +6814,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -6806,7 +6822,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -6814,7 +6830,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -6822,7 +6838,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -6830,7 +6846,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -6838,7 +6854,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -6846,7 +6862,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -6854,7 +6870,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -6862,7 +6878,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6870,7 +6886,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -6878,7 +6894,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -6886,7 +6902,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -6894,7 +6910,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -6902,7 +6918,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6910,7 +6926,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -6918,7 +6934,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -6926,7 +6942,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -6934,7 +6950,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -6942,7 +6958,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -6950,7 +6966,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -6958,7 +6974,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -6966,7 +6982,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -6974,7 +6990,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -6982,7 +6998,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -6990,7 +7006,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -6998,7 +7014,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -7006,7 +7022,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -7014,7 +7030,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -7022,7 +7038,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="2:8">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -7030,7 +7046,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="2:8">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -7038,4527 +7054,4527 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="2:8">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H201" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="2:8">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H203" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="2:8">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H204" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H205" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="2:8">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H206" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H207" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="2:8">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H208" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H209" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H210" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H211" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H212" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H216" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H217" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H218" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H219" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H220" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H221" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H222" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H223" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H224" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H225" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H226" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H227" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H228" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H229" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H230" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H231" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H232" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H233" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H234" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H235" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H236" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H237" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H238" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H239" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H240" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H241" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H243" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H244" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H245" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H247" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H248" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H249" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H250" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H251" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H252" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H253" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H254" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H255" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H256" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H257" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H258" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H259" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H260" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H261" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H262" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H263" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H264" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H265" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H266" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H267" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H268" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H269" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H271" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H272" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H273" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H274" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H275" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H276" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H277" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H278" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H279" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H280" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H281" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H282" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H283" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H284" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H285" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H286" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H287" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H288" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="8:8">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H289" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="8:8">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H290" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="8:8">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H291" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="292" spans="8:8">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H292" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="293" spans="8:8">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H293" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="8:8">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H294" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="295" spans="8:8">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H295" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="296" spans="8:8">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H296" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="297" spans="8:8">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H297" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="8:8">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H298" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="8:8">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H299" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="300" spans="8:8">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H300" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="8:8">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H301" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="302" spans="8:8">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H302" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="303" spans="8:8">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H303" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="8:8">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H304" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="8:8">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H305" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="8:8">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H306" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="307" spans="8:8">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H307" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="308" spans="8:8">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H308" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="8:8">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H309" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="8:8">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H310" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="311" spans="8:8">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H311" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="8:8">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H312" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="8:8">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H313" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="314" spans="8:8">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H314" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="315" spans="8:8">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H315" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="8:8">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H316" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="8:8">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H317" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="8:8">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H318" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="319" spans="8:8">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H319" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="320" spans="8:8">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="8:8">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="8:8">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H322" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="8:8">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H323" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="8:8">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H324" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="8:8">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H325" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="326" spans="8:8">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H326" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="327" spans="8:8">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H327" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H328" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="329" spans="8:8">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H329" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="8:8">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H330" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="331" spans="8:8">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H331" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="8:8">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H332" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="8:8">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H333" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="8:8">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H334" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="8:8">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H335" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="8:8">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H336" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="8:8">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H337" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="8:8">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H338" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="8:8">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H339" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="8:8">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H340" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="8:8">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H341" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="8:8">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H342" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="8:8">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H343" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="8:8">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H344" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="345" spans="8:8">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H345" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="8:8">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H346" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="8:8">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H347" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="8:8">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H348" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="349" spans="8:8">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H349" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="350" spans="8:8">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H350" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="351" spans="8:8">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H351" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="8:8">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H352" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="8:8">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H353" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="8:8">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H354" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="355" spans="8:8">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H355" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="8:8">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H356" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="8:8">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H357" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="358" spans="8:8">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H358" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="8:8">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H359" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="8:8">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H360" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="8:8">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H361" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="8:8">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H362" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="363" spans="8:8">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H363" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="8:8">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H364" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="8:8">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H365" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="366" spans="8:8">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H366" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="367" spans="8:8">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H367" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="368" spans="8:8">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H368" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="8:8">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H369" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H370" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="371" spans="8:8">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H371" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="372" spans="8:8">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H372" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="373" spans="8:8">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H373" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="8:8">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H374" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="8:8">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H375" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="8:8">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H376" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="8:8">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H377" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H378" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H379" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="8:8">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H380" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="8:8">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="8:8">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H382" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="383" spans="8:8">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H383" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="384" spans="8:8">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H384" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="385" spans="8:8">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H385" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="8:8">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H386" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="8:8">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H387" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="8:8">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H388" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H389" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="8:8">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H390" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="8:8">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H391" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="392" spans="8:8">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H392" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="393" spans="8:8">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H393" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="394" spans="8:8">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H394" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="395" spans="8:8">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H395" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="396" spans="8:8">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H396" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="8:8">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H397" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="8:8">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H398" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="8:8">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H399" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="400" spans="8:8">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H400" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="401" spans="8:8">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H401" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="402" spans="8:8">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H402" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="403" spans="8:8">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H403" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="404" spans="8:8">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H404" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="8:8">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H405" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="406" spans="8:8">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H406" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="407" spans="8:8">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H407" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="408" spans="8:8">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H408" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="8:8">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H409" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="410" spans="8:8">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H410" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="8:8">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H411" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="412" spans="8:8">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H412" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="413" spans="8:8">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H413" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="414" spans="8:8">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H414" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="415" spans="8:8">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H415" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="8:8">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H416" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="417" spans="8:8">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H417" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="418" spans="8:8">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H418" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="419" spans="8:8">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H419" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="420" spans="8:8">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H420" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="8:8">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H421" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="422" spans="8:8">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H422" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="8:8">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H423" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="424" spans="8:8">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H424" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H425" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H426" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="8:8">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H427" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="428" spans="8:8">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H428" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="8:8">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H429" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="430" spans="8:8">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H430" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="431" spans="8:8">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H431" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="432" spans="8:8">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H432" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="433" spans="8:8">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H433" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="434" spans="8:8">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H434" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="435" spans="8:8">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H435" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="436" spans="8:8">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H436" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="437" spans="8:8">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H437" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H438" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="439" spans="8:8">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H439" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="440" spans="8:8">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H440" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H441" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="442" spans="8:8">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H442" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H443" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="444" spans="8:8">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H444" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="445" spans="8:8">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H445" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="446" spans="8:8">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H446" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="447" spans="8:8">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H447" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="8:8">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H448" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="449" spans="8:8">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H449" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="450" spans="8:8">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H450" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="451" spans="8:8">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H451" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="452" spans="8:8">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H452" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="453" spans="8:8">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="454" spans="8:8">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H454" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="8:8">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H455" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="456" spans="8:8">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H456" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="8:8">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H457" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="458" spans="8:8">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H458" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H459" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="8:8">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H460" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H461" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="462" spans="8:8">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H462" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="463" spans="8:8">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H463" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H464" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="465" spans="8:8">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H465" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="466" spans="8:8">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H466" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="467" spans="8:8">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H467" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="468" spans="8:8">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H468" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="469" spans="8:8">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H469" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="470" spans="8:8">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H470" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="471" spans="8:8">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H471" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="8:8">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H472" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="473" spans="8:8">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H473" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="474" spans="8:8">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H474" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="475" spans="8:8">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H475" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="8:8">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H476" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="477" spans="8:8">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H477" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="478" spans="8:8">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H478" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="8:8">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H479" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="480" spans="8:8">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H480" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H481" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="482" spans="8:8">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H482" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="483" spans="8:8">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H483" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="484" spans="8:8">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H484" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="8:8">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H485" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="486" spans="8:8">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H486" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="8:8">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H487" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="488" spans="8:8">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H488" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="489" spans="8:8">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H489" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="490" spans="8:8">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H490" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="491" spans="8:8">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H491" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="492" spans="8:8">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H492" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H493" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="494" spans="8:8">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H494" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H495" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="8:8">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H496" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="8:8">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H497" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="498" spans="8:8">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H498" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="8:8">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H499" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="500" spans="8:8">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H500" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="501" spans="8:8">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H501" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="502" spans="8:8">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H502" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="503" spans="8:8">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H503" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="8:8">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H504" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="8:8">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H505" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="8:8">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H506" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="507" spans="8:8">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H507" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="508" spans="8:8">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H508" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="509" spans="8:8">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H509" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="510" spans="8:8">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H510" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="511" spans="8:8">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H511" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="512" spans="8:8">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H512" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="8:8">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H513" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="514" spans="8:8">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H514" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="8:8">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H515" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="516" spans="8:8">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H516" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="8:8">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H517" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="518" spans="8:8">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H518" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="8:8">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H519" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="520" spans="8:8">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H520" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="521" spans="8:8">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H521" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="522" spans="8:8">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H522" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="8:8">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H523" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="524" spans="8:8">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H524" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="525" spans="8:8">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H525" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="526" spans="8:8">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H526" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="527" spans="8:8">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H527" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="528" spans="8:8">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H528" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="529" spans="8:8">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H529" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H530" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="531" spans="8:8">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H531" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H532" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="533" spans="8:8">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H533" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="534" spans="8:8">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="8:8">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H535" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="536" spans="8:8">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H536" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="537" spans="8:8">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H537" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="538" spans="8:8">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H538" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="539" spans="8:8">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H539" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="540" spans="8:8">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H540" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="541" spans="8:8">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H541" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="8:8">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H542" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="543" spans="8:8">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H543" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="544" spans="8:8">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H544" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="545" spans="8:8">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H545" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="546" spans="8:8">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H546" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="547" spans="8:8">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H547" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="548" spans="8:8">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H548" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="549" spans="8:8">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H549" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H550" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="551" spans="8:8">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H551" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="8:8">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H552" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="553" spans="8:8">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H553" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="554" spans="8:8">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H554" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="555" spans="8:8">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H555" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="556" spans="8:8">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H556" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="8:8">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H557" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="8:8">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H558" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="8:8">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H559" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="560" spans="8:8">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H560" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="561" spans="8:8">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H561" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="562" spans="8:8">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H562" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="563" spans="8:8">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H563" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="8:8">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H564" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="565" spans="8:8">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H565" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H566" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H567" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H568" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="569" spans="8:8">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H569" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="570" spans="8:8">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H570" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="571" spans="8:8">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H571" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="8:8">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H572" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="573" spans="8:8">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H573" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="574" spans="8:8">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H574" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="575" spans="8:8">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H575" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="8:8">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H576" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="577" spans="8:8">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H577" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="578" spans="8:8">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H578" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="579" spans="8:8">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H579" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="580" spans="8:8">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H580" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="581" spans="8:8">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H581" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="8:8">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H582" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="583" spans="8:8">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H583" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="584" spans="8:8">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H584" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="585" spans="8:8">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H585" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="586" spans="8:8">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H586" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="8:8">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H587" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="588" spans="8:8">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H588" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="589" spans="8:8">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H589" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="590" spans="8:8">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H590" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="591" spans="8:8">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H591" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="592" spans="8:8">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H592" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="593" spans="8:8">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H593" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="594" spans="8:8">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H594" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="595" spans="8:8">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H595" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="596" spans="8:8">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H596" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="597" spans="8:8">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H597" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="598" spans="8:8">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H598" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="599" spans="8:8">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H599" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="600" spans="8:8">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H600" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="8:8">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H601" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="8:8">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H602" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="603" spans="8:8">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H603" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="604" spans="8:8">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H604" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="605" spans="8:8">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H605" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="606" spans="8:8">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H606" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="607" spans="8:8">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H607" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="608" spans="8:8">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H608" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="609" spans="8:8">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H609" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="610" spans="8:8">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H610" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="611" spans="8:8">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H611" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="8:8">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H612" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="613" spans="8:8">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H613" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="614" spans="8:8">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H614" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="615" spans="8:8">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H615" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="8:8">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H616" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="617" spans="8:8">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H617" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="618" spans="8:8">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H618" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="619" spans="8:8">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H619" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="620" spans="8:8">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H620" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="621" spans="8:8">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H621" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="622" spans="8:8">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H622" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="8:8">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H623" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="8:8">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H624" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="8:8">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H625" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="626" spans="8:8">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H626" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="627" spans="8:8">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H627" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="628" spans="8:8">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H628" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="629" spans="8:8">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H629" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="630" spans="8:8">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H630" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="631" spans="8:8">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H631" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="632" spans="8:8">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H632" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="633" spans="8:8">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H633" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="634" spans="8:8">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H634" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="635" spans="8:8">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H635" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="636" spans="8:8">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H636" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="637" spans="8:8">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H637" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="638" spans="8:8">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H638" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="639" spans="8:8">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H639" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="640" spans="8:8">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H640" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="641" spans="8:8">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H641" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="642" spans="8:8">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H642" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="643" spans="8:8">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H643" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="644" spans="8:8">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H644" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="645" spans="8:8">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H645" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="646" spans="8:8">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H646" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="647" spans="8:8">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H647" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="648" spans="8:8">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H648" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="649" spans="8:8">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H649" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="650" spans="8:8">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H650" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="651" spans="8:8">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H651" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="652" spans="8:8">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H652" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="653" spans="8:8">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H653" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="654" spans="8:8">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H654" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="655" spans="8:8">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H655" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="8:8">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H656" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="657" spans="8:8">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H657" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="658" spans="8:8">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H658" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="659" spans="8:8">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H659" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="660" spans="8:8">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H660" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="661" spans="8:8">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="662" spans="8:8">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H662" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="663" spans="8:8">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="664" spans="8:8">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H664" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="665" spans="8:8">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H665" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="666" spans="8:8">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H666" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="667" spans="8:8">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H667" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="668" spans="8:8">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H668" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="669" spans="8:8">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H669" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="670" spans="8:8">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H670" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="671" spans="8:8">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H671" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="672" spans="8:8">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H672" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="673" spans="8:8">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H673" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="674" spans="8:8">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H674" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="675" spans="8:8">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H675" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="676" spans="8:8">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H676" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="677" spans="8:8">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H677" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="678" spans="8:8">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H678" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="679" spans="8:8">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H679" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="680" spans="8:8">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H680" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="681" spans="8:8">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H681" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="682" spans="8:8">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H682" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="683" spans="8:8">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H683" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="684" spans="8:8">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H684" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="685" spans="8:8">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H685" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="8:8">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H686" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="687" spans="8:8">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H687" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="688" spans="8:8">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H688" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="689" spans="8:8">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H689" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="690" spans="8:8">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H690" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="691" spans="8:8">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H691" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="692" spans="8:8">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H692" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="693" spans="8:8">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H693" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="694" spans="8:8">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H694" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="695" spans="8:8">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H695" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="8:8">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H696" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="697" spans="8:8">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H697" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="698" spans="8:8">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H698" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="699" spans="8:8">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="700" spans="8:8">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H700" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="8:8">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H701" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="8:8">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H702" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="703" spans="8:8">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H703" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="704" spans="8:8">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H704" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="705" spans="8:8">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H705" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="706" spans="8:8">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H706" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="707" spans="8:8">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H707" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="708" spans="8:8">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H708" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="709" spans="8:8">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H709" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="710" spans="8:8">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H710" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="711" spans="8:8">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H711" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="712" spans="8:8">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H712" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="713" spans="8:8">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H713" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="714" spans="8:8">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H714" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="715" spans="8:8">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H715" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="716" spans="8:8">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H716" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="717" spans="8:8">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H717" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="718" spans="8:8">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H718" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="8:8">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H719" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="720" spans="8:8">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H720" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="721" spans="8:8">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H721" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="722" spans="8:8">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H722" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="723" spans="8:8">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H723" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="724" spans="8:8">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H724" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="725" spans="8:8">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H725" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="726" spans="8:8">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H726" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="727" spans="8:8">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H727" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="728" spans="8:8">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H728" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="729" spans="8:8">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H729" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="730" spans="8:8">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H730" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="731" spans="8:8">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H731" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="732" spans="8:8">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H732" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="733" spans="8:8">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H733" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="734" spans="8:8">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H734" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="735" spans="8:8">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H735" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="736" spans="8:8">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H736" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="737" spans="8:8">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H737" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="738" spans="8:8">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H738" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="739" spans="8:8">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H739" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="740" spans="8:8">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H740" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="741" spans="8:8">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H741" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="742" spans="8:8">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H742" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="743" spans="8:8">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H743" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="744" spans="8:8">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H744" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="745" spans="8:8">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H745" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="746" spans="8:8">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H746" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="747" spans="8:8">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H747" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="748" spans="8:8">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H748" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="749" spans="8:8">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H749" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="750" spans="8:8">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H750" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="751" spans="8:8">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H751" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="752" spans="8:8">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H752" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="753" spans="8:8">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H753" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="8:8">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H754" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="755" spans="8:8">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H755" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="756" spans="8:8">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H756" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="757" spans="8:8">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H757" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="758" spans="8:8">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H758" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="759" spans="8:8">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H759" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="760" spans="8:8">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H760" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="761" spans="8:8">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H761" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="762" spans="8:8">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H762" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="763" spans="8:8">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H763" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="764" spans="8:8">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H764" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="765" spans="8:8">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H765" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="766" spans="8:8">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H766" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="767" spans="8:8">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H767" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="768" spans="8:8">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H768" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="769" spans="8:8">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H769" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="770" spans="8:8">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H770" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="8:8">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H771" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="772" spans="8:8">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H772" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="773" spans="8:8">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H773" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="774" spans="8:8">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H774" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="775" spans="8:8">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H775" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="776" spans="8:8">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H776" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="8:8">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H777" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="778" spans="8:8">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H778" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="779" spans="8:8">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H779" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="780" spans="8:8">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H780" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="781" spans="8:8">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H781" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="782" spans="8:8">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H782" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="783" spans="8:8">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H783" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="784" spans="8:8">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H784" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="785" spans="8:8">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H785" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="786" spans="8:8">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H786" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="787" spans="8:8">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H787" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="788" spans="8:8">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H788" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="789" spans="8:8">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H789" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="790" spans="8:8">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H790" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="8:8">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H791" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="792" spans="8:8">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H792" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="793" spans="8:8">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H793" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="794" spans="8:8">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H794" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="795" spans="8:8">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H795" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="796" spans="8:8">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H796" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="797" spans="8:8">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H797" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="798" spans="8:8">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H798" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="799" spans="8:8">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H799" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="800" spans="8:8">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H800" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="801" spans="8:8">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H801" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="802" spans="8:8">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H802" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="803" spans="8:8">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H803" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="804" spans="8:8">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H804" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="805" spans="8:8">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H805" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="806" spans="8:8">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H806" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="807" spans="8:8">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H807" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="808" spans="8:8">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H808" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="809" spans="8:8">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H809" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="8:8">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H810" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="811" spans="8:8">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H811" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="812" spans="8:8">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H812" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="813" spans="8:8">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H813" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="814" spans="8:8">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H814" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="815" spans="8:8">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H815" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="816" spans="8:8">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H816" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="817" spans="8:8">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H817" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="818" spans="8:8">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H818" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="819" spans="8:8">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H819" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="820" spans="8:8">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H820" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="821" spans="8:8">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H821" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="822" spans="8:8">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H822" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="823" spans="8:8">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H823" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="824" spans="8:8">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H824" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="825" spans="8:8">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H825" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="826" spans="8:8">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H826" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="827" spans="8:8">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H827" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="828" spans="8:8">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H828" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="829" spans="8:8">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H829" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="830" spans="8:8">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H830" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="831" spans="8:8">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H831" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="832" spans="8:8">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H832" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="833" spans="8:8">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H833" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="834" spans="8:8">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H834" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="835" spans="8:8">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H835" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="836" spans="8:8">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H836" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="8:8">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H837" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="838" spans="8:8">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="839" spans="8:8">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H839" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="840" spans="8:8">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H840" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="841" spans="8:8">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H841" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="842" spans="8:8">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H842" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="843" spans="8:8">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H843" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="844" spans="8:8">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H844" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="845" spans="8:8">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H845" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="846" spans="8:8">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H846" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="847" spans="8:8">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H847" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="848" spans="8:8">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H848" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="849" spans="8:8">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H849" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="850" spans="8:8">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H850" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="851" spans="8:8">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H851" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="852" spans="8:8">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H852" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="853" spans="8:8">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H853" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="854" spans="8:8">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H854" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="855" spans="8:8">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H855" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="856" spans="8:8">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H856" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="857" spans="8:8">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H857" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="8:8">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H858" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="859" spans="8:8">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H859" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="860" spans="8:8">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H860" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="861" spans="8:8">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H861" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="862" spans="8:8">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H862" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="863" spans="8:8">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H863" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="864" spans="8:8">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H864" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="865" spans="8:8">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H865" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="866" spans="8:8">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H866" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="867" spans="8:8">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H867" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="868" spans="8:8">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H868" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="869" spans="8:8">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H869" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="870" spans="8:8">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H870" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="871" spans="8:8">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H871" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="872" spans="8:8">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H872" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="873" spans="8:8">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H873" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="874" spans="8:8">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H874" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="875" spans="8:8">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H875" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="876" spans="8:8">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H876" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="877" spans="8:8">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H877" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="878" spans="8:8">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H878" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="879" spans="8:8">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H879" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="880" spans="8:8">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H880" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="881" spans="8:8">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H881" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="882" spans="8:8">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H882" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="883" spans="8:8">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H883" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="884" spans="8:8">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H884" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="885" spans="8:8">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H885" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="886" spans="8:8">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H886" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="887" spans="8:8">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H887" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="888" spans="8:8">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H888" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="889" spans="8:8">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H889" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="890" spans="8:8">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H890" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="891" spans="8:8">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H891" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="892" spans="8:8">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H892" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="893" spans="8:8">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H893" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="894" spans="8:8">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H894" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="8:8">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H895" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="896" spans="8:8">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H896" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="897" spans="8:8">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H897" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="898" spans="8:8">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H898" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="899" spans="8:8">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H899" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="900" spans="8:8">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H900" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="901" spans="8:8">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H901" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="902" spans="8:8">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H902" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="903" spans="8:8">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H903" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="904" spans="8:8">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H904" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="905" spans="8:8">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H905" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="906" spans="8:8">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H906" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="907" spans="8:8">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H907" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="8:8">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H908" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="909" spans="8:8">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H909" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="910" spans="8:8">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H910" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="911" spans="8:8">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H911" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="912" spans="8:8">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H912" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="913" spans="8:8">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H913" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="914" spans="8:8">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H914" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="915" spans="8:8">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H915" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="916" spans="8:8">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H916" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="917" spans="8:8">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H917" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="918" spans="8:8">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H918" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="919" spans="8:8">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H919" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="920" spans="8:8">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H920" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="921" spans="8:8">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H921" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="922" spans="8:8">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H922" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="923" spans="8:8">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H923" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="924" spans="8:8">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H924" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="925" spans="8:8">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H925" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="926" spans="8:8">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H926" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="927" spans="8:8">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H927" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="928" spans="8:8">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H928" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="929" spans="8:8">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H929" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="930" spans="8:8">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H930" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="931" spans="8:8">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H931" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="932" spans="8:8">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H932" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="933" spans="8:8">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H933" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="934" spans="8:8">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H934" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="935" spans="8:8">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H935" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="936" spans="8:8">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H936" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="937" spans="8:8">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H937" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="938" spans="8:8">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H938" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="939" spans="8:8">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H939" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="940" spans="8:8">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H940" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="941" spans="8:8">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H941" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="942" spans="8:8">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H942" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="943" spans="8:8">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H943" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="944" spans="8:8">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H944" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="945" spans="8:8">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H945" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="946" spans="8:8">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H946" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="947" spans="8:8">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H947" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="948" spans="8:8">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H948" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="949" spans="8:8">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H949" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="950" spans="8:8">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H950" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="8:8">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H951" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="952" spans="8:8">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H952" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="953" spans="8:8">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H953" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="954" spans="8:8">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H954" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="955" spans="8:8">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H955" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="956" spans="8:8">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H956" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="957" spans="8:8">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H957" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="958" spans="8:8">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H958" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="959" spans="8:8">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H959" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="960" spans="8:8">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H960" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="961" spans="8:8">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H961" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="962" spans="8:8">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H962" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="963" spans="8:8">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H963" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="964" spans="8:8">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H964" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="965" spans="8:8">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H965" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="966" spans="8:8">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H966" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="967" spans="8:8">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H967" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="968" spans="8:8">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H968" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="969" spans="8:8">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H969" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="970" spans="8:8">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H970" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="971" spans="8:8">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H971" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="972" spans="8:8">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H972" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="973" spans="8:8">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H973" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="974" spans="8:8">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H974" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="975" spans="8:8">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H975" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="976" spans="8:8">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H976" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="977" spans="8:8">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H977" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="978" spans="8:8">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H978" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="979" spans="8:8">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H979" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="980" spans="8:8">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H980" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="981" spans="8:8">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H981" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="982" spans="8:8">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H982" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="983" spans="8:8">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H983" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="984" spans="8:8">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H984" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="985" spans="8:8">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H985" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="986" spans="8:8">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H986" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="987" spans="8:8">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H987" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="988" spans="8:8">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H988" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="989" spans="8:8">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H989" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="990" spans="8:8">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H990" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="991" spans="8:8">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H991" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="992" spans="8:8">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H992" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="993" spans="8:8">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H993" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="994" spans="8:8">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H994" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="995" spans="8:8">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H995" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="996" spans="8:8">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H996" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="997" spans="8:8">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H997" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="998" spans="8:8">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H998" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="999" spans="8:8">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H999" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1000" spans="8:8">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1000" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1001" spans="8:8">
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1001" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1002" spans="8:8">
+    <row r="1002" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1002" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1003" spans="8:8">
+    <row r="1003" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1003" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1004" spans="8:8">
+    <row r="1004" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1004" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1005" spans="8:8">
+    <row r="1005" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1005" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1006" spans="8:8">
+    <row r="1006" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1006" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1007" spans="8:8">
+    <row r="1007" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1007" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1008" spans="8:8">
+    <row r="1008" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1008" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1009" spans="8:8">
+    <row r="1009" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1009" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1010" spans="8:8">
+    <row r="1010" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1010" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1011" spans="8:8">
+    <row r="1011" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1011" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1012" spans="8:8">
+    <row r="1012" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1012" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1013" spans="8:8">
+    <row r="1013" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1013" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1014" spans="8:8">
+    <row r="1014" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1014" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1015" spans="8:8">
+    <row r="1015" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1015" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1016" spans="8:8">
+    <row r="1016" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1016" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1017" spans="8:8">
+    <row r="1017" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1017" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1018" spans="8:8">
+    <row r="1018" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1018" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1019" spans="8:8">
+    <row r="1019" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1019" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1020" spans="8:8">
+    <row r="1020" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1020" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1021" spans="8:8">
+    <row r="1021" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1021" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1022" spans="8:8">
+    <row r="1022" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="8:8">
+    <row r="1023" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1023" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1024" spans="8:8">
+    <row r="1024" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1024" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1025" spans="8:8">
+    <row r="1025" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1025" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1026" spans="8:8">
+    <row r="1026" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1026" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1027" spans="8:8">
+    <row r="1027" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1027" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1028" spans="8:8">
+    <row r="1028" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1028" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1029" spans="8:8">
+    <row r="1029" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1029" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1030" spans="8:8">
+    <row r="1030" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1030" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1031" spans="8:8">
+    <row r="1031" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1031" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1032" spans="8:8">
+    <row r="1032" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1032" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1033" spans="8:8">
+    <row r="1033" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1033" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1034" spans="8:8">
+    <row r="1034" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1034" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1035" spans="8:8">
+    <row r="1035" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1035" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1036" spans="8:8">
+    <row r="1036" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1036" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1037" spans="8:8">
+    <row r="1037" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1037" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1038" spans="8:8">
+    <row r="1038" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1038" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1039" spans="8:8">
+    <row r="1039" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1039" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1040" spans="8:8">
+    <row r="1040" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1040" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1041" spans="8:8">
+    <row r="1041" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1041" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1042" spans="8:8">
+    <row r="1042" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1042" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1043" spans="8:8">
+    <row r="1043" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1043" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1044" spans="8:8">
+    <row r="1044" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1044" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1045" spans="8:8">
+    <row r="1045" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1045" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1046" spans="8:8">
+    <row r="1046" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1046" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1047" spans="8:8">
+    <row r="1047" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1047" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1048" spans="8:8">
+    <row r="1048" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1048" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1049" spans="8:8">
+    <row r="1049" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1049" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1050" spans="8:8">
+    <row r="1050" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1050" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1051" spans="8:8">
+    <row r="1051" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1051" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1052" spans="8:8">
+    <row r="1052" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1052" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1053" spans="8:8">
+    <row r="1053" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1053" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1054" spans="8:8">
+    <row r="1054" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1054" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1055" spans="8:8">
+    <row r="1055" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1055" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1056" spans="8:8">
+    <row r="1056" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1056" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1057" spans="8:8">
+    <row r="1057" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1057" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1058" spans="8:8">
+    <row r="1058" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1058" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1059" spans="8:8">
+    <row r="1059" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1059" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1060" spans="8:8">
+    <row r="1060" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1060" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1061" spans="8:8">
+    <row r="1061" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1061" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1062" spans="8:8">
+    <row r="1062" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1062" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1063" spans="8:8">
+    <row r="1063" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1063" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1064" spans="8:8">
+    <row r="1064" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1064" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1065" spans="8:8">
+    <row r="1065" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1065" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1066" spans="8:8">
+    <row r="1066" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1066" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1067" spans="8:8">
+    <row r="1067" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1067" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1068" spans="8:8">
+    <row r="1068" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1068" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1069" spans="8:8">
+    <row r="1069" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1069" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1070" spans="8:8">
+    <row r="1070" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1070" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1071" spans="8:8">
+    <row r="1071" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1071" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1072" spans="8:8">
+    <row r="1072" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1072" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1073" spans="8:8">
+    <row r="1073" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1073" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1074" spans="8:8">
+    <row r="1074" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1074" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1075" spans="8:8">
+    <row r="1075" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1075" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1076" spans="8:8">
+    <row r="1076" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1076" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1077" spans="8:8">
+    <row r="1077" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1077" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1078" spans="8:8">
+    <row r="1078" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1078" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1079" spans="8:8">
+    <row r="1079" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1079" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1080" spans="8:8">
+    <row r="1080" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1080" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1081" spans="8:8">
+    <row r="1081" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1081" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1082" spans="8:8">
+    <row r="1082" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1082" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1083" spans="8:8">
+    <row r="1083" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1083" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1084" spans="8:8">
+    <row r="1084" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1084" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1085" spans="8:8">
+    <row r="1085" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1085" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1086" spans="8:8">
+    <row r="1086" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1086" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1087" spans="8:8">
+    <row r="1087" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1087" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1088" spans="8:8">
+    <row r="1088" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1088" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1089" spans="8:8">
+    <row r="1089" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1089" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1090" spans="8:8">
+    <row r="1090" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1090" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1091" spans="8:8">
+    <row r="1091" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1091" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1092" spans="8:8">
+    <row r="1092" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1092" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1093" spans="8:8">
+    <row r="1093" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1093" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1094" spans="8:8">
+    <row r="1094" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1094" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1095" spans="8:8">
+    <row r="1095" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1095" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1096" spans="8:8">
+    <row r="1096" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1096" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1097" spans="8:8">
+    <row r="1097" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1097" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1098" spans="8:8">
+    <row r="1098" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1098" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1099" spans="8:8">
+    <row r="1099" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1099" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1100" spans="8:8">
+    <row r="1100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1100" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1101" spans="8:8">
+    <row r="1101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1101" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1102" spans="8:8">
+    <row r="1102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1102" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1103" spans="8:8">
+    <row r="1103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1103" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1104" spans="8:8">
+    <row r="1104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1105" spans="8:8">
+    <row r="1105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H1105" t="s">
         <v>1479</v>
       </c>
@@ -11569,29 +11585,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11602,7 +11618,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11613,7 +11629,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11624,7 +11640,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -11635,7 +11651,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11646,7 +11662,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -11657,7 +11673,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -11669,30 +11685,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
-      <formula1>indeces!$I$1:$I$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
-      <formula1>indeces!$F$1:$F$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:AH1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$I$1:$I$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:AH2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$F$1:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:AH3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11715,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11738,7 +11767,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1491</v>
       </c>
@@ -11765,111 +11794,31 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$G$1:$G$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$G$1:$G$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11892,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
@@ -11915,7 +11864,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1492</v>
       </c>
@@ -11942,126 +11891,46 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$H$1:$H$1105</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$H$1:$H$1105</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -12072,7 +11941,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -12083,7 +11952,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -12094,7 +11963,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -12105,7 +11974,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -12116,7 +11985,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -12127,7 +11996,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -12139,30 +12008,45 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:AH1">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AH2">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:AH3">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:AH1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$D$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:AH2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$C$1:$C$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:AH3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12184,8 +12068,44 @@
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>355</v>
       </c>
@@ -12207,8 +12127,44 @@
       <c r="J2" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1481</v>
       </c>
@@ -12239,328 +12195,252 @@
       <c r="J3" s="1" t="s">
         <v>1490</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="90">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>indeces!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>indeces!$D$1:$D$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
-      <formula1>indeces!$C$1:$C$163</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3 A12:A31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>indeces!$D$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3 B12:B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>indeces!$C$1:$C$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3 C8:C31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1489</v>
       </c>

--- a/Add Sectors/new_commodities.xlsx
+++ b/Add Sectors/new_commodities.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="35" documentId="11_0194BA63F65AA8574B4D1C44C89466D800B6C642" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFEE0FE-CCD1-4E0D-B931-4F9ADEEEA205}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="4050" windowWidth="16920" windowHeight="10990" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -12040,8 +12040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
